--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4577,28 +4577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4895.950121769162</v>
+        <v>5030.016387665051</v>
       </c>
       <c r="AB2" t="n">
-        <v>6698.854950680227</v>
+        <v>6882.290330265213</v>
       </c>
       <c r="AC2" t="n">
-        <v>6059.525636089027</v>
+        <v>6225.454200499586</v>
       </c>
       <c r="AD2" t="n">
-        <v>4895950.121769162</v>
+        <v>5030016.387665051</v>
       </c>
       <c r="AE2" t="n">
-        <v>6698854.950680227</v>
+        <v>6882290.330265213</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260667956943446e-07</v>
+        <v>1.343413666798279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.928125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6059525.636089027</v>
+        <v>6225454.200499586</v>
       </c>
     </row>
     <row r="3">
@@ -4683,28 +4683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1664.183505178124</v>
+        <v>1725.161597755066</v>
       </c>
       <c r="AB3" t="n">
-        <v>2277.009290379333</v>
+        <v>2360.442206806687</v>
       </c>
       <c r="AC3" t="n">
-        <v>2059.69471950814</v>
+        <v>2135.164915490501</v>
       </c>
       <c r="AD3" t="n">
-        <v>1664183.505178124</v>
+        <v>1725161.597755066</v>
       </c>
       <c r="AE3" t="n">
-        <v>2277009.290379333</v>
+        <v>2360442.206806687</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361247593052829e-06</v>
+        <v>2.518664441409433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2059694.71950814</v>
+        <v>2135164.915490501</v>
       </c>
     </row>
     <row r="4">
@@ -4789,28 +4789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1276.221855877842</v>
+        <v>1337.199858946233</v>
       </c>
       <c r="AB4" t="n">
-        <v>1746.183046146683</v>
+        <v>1829.615840104489</v>
       </c>
       <c r="AC4" t="n">
-        <v>1579.529787005741</v>
+        <v>1654.999872206875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1276221.855877842</v>
+        <v>1337199.858946233</v>
       </c>
       <c r="AE4" t="n">
-        <v>1746183.046146683</v>
+        <v>1829615.840104489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595537983626491e-06</v>
+        <v>2.952163004575604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.523958333333335</v>
       </c>
       <c r="AH4" t="n">
-        <v>1579529.787005741</v>
+        <v>1654999.872206875</v>
       </c>
     </row>
     <row r="5">
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1122.257907033727</v>
+        <v>1183.150569247546</v>
       </c>
       <c r="AB5" t="n">
-        <v>1535.522778928127</v>
+        <v>1618.838805763734</v>
       </c>
       <c r="AC5" t="n">
-        <v>1388.974640026981</v>
+        <v>1464.339102196177</v>
       </c>
       <c r="AD5" t="n">
-        <v>1122257.907033727</v>
+        <v>1183150.569247546</v>
       </c>
       <c r="AE5" t="n">
-        <v>1535522.778928127</v>
+        <v>1618838.805763735</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.718372671586033e-06</v>
+        <v>3.179439337194481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1388974.640026981</v>
+        <v>1464339.102196177</v>
       </c>
     </row>
     <row r="6">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1041.794895676102</v>
+        <v>1090.492046784794</v>
       </c>
       <c r="AB6" t="n">
-        <v>1425.429737011094</v>
+        <v>1492.059327524689</v>
       </c>
       <c r="AC6" t="n">
-        <v>1289.388723513955</v>
+        <v>1349.659279424151</v>
       </c>
       <c r="AD6" t="n">
-        <v>1041794.895676102</v>
+        <v>1090492.046784794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1425429.737011094</v>
+        <v>1492059.327524689</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.796129071446408e-06</v>
+        <v>3.323309034683628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.460416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1289388.723513955</v>
+        <v>1349659.279424151</v>
       </c>
     </row>
     <row r="7">
@@ -5107,28 +5107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>989.3385643574578</v>
+        <v>1038.03571546615</v>
       </c>
       <c r="AB7" t="n">
-        <v>1353.656670290916</v>
+        <v>1420.286260804511</v>
       </c>
       <c r="AC7" t="n">
-        <v>1224.465577547419</v>
+        <v>1284.736133457614</v>
       </c>
       <c r="AD7" t="n">
-        <v>989338.5643574578</v>
+        <v>1038035.71546615</v>
       </c>
       <c r="AE7" t="n">
-        <v>1353656.670290916</v>
+        <v>1420286.260804511</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.84893923420336e-06</v>
+        <v>3.421021662246613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.21875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1224465.577547419</v>
+        <v>1284736.133457614</v>
       </c>
     </row>
     <row r="8">
@@ -5213,28 +5213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>952.0101348066216</v>
+        <v>1000.707285915314</v>
       </c>
       <c r="AB8" t="n">
-        <v>1302.582266165376</v>
+        <v>1369.211856678971</v>
       </c>
       <c r="AC8" t="n">
-        <v>1178.265642868245</v>
+        <v>1238.53619877844</v>
       </c>
       <c r="AD8" t="n">
-        <v>952010.1348066216</v>
+        <v>1000707.285915314</v>
       </c>
       <c r="AE8" t="n">
-        <v>1302582.266165376</v>
+        <v>1369211.856678971</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.885556225507214e-06</v>
+        <v>3.488772683015423e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.059375000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>1178265.642868245</v>
+        <v>1238536.19877844</v>
       </c>
     </row>
     <row r="9">
@@ -5319,28 +5319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>908.4616695123769</v>
+        <v>969.2689908716244</v>
       </c>
       <c r="AB9" t="n">
-        <v>1242.997334727095</v>
+        <v>1326.196594440505</v>
       </c>
       <c r="AC9" t="n">
-        <v>1124.367413658456</v>
+        <v>1199.626252795713</v>
       </c>
       <c r="AD9" t="n">
-        <v>908461.6695123769</v>
+        <v>969268.9908716244</v>
       </c>
       <c r="AE9" t="n">
-        <v>1242997.334727095</v>
+        <v>1326196.594440505</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.915608417573325e-06</v>
+        <v>3.544377106435243e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.933333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1124367.413658456</v>
+        <v>1199626.252795713</v>
       </c>
     </row>
     <row r="10">
@@ -5425,28 +5425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>882.5138544427331</v>
+        <v>931.2962568974458</v>
       </c>
       <c r="AB10" t="n">
-        <v>1207.494389411999</v>
+        <v>1274.240624578244</v>
       </c>
       <c r="AC10" t="n">
-        <v>1092.252819615537</v>
+        <v>1152.628887776444</v>
       </c>
       <c r="AD10" t="n">
-        <v>882513.8544427331</v>
+        <v>931296.2568974458</v>
       </c>
       <c r="AE10" t="n">
-        <v>1207494.389411999</v>
+        <v>1274240.624578244</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937928734981651e-06</v>
+        <v>3.585675537421809e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.841666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1092252.819615537</v>
+        <v>1152628.887776444</v>
       </c>
     </row>
     <row r="11">
@@ -5531,28 +5531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>860.5098643025234</v>
+        <v>909.2922667572361</v>
       </c>
       <c r="AB11" t="n">
-        <v>1177.387559354631</v>
+        <v>1244.133794520876</v>
       </c>
       <c r="AC11" t="n">
-        <v>1065.019343163643</v>
+        <v>1125.39541132455</v>
       </c>
       <c r="AD11" t="n">
-        <v>860509.8643025234</v>
+        <v>909292.2667572361</v>
       </c>
       <c r="AE11" t="n">
-        <v>1177387.559354631</v>
+        <v>1244133.794520876</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.956601941702341e-06</v>
+        <v>3.620225858770047e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.766666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1065019.343163643</v>
+        <v>1125395.41132455</v>
       </c>
     </row>
     <row r="12">
@@ -5637,28 +5637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>837.7388946947253</v>
+        <v>886.5212971494378</v>
       </c>
       <c r="AB12" t="n">
-        <v>1146.231314152962</v>
+        <v>1212.977549319207</v>
       </c>
       <c r="AC12" t="n">
-        <v>1036.836606275956</v>
+        <v>1097.212674436864</v>
       </c>
       <c r="AD12" t="n">
-        <v>837738.8946947253</v>
+        <v>886521.2971494378</v>
       </c>
       <c r="AE12" t="n">
-        <v>1146231.314152962</v>
+        <v>1212977.549319207</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.97119038445288e-06</v>
+        <v>3.647218297323358e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.709375000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>1036836.606275956</v>
+        <v>1097212.674436864</v>
       </c>
     </row>
     <row r="13">
@@ -5743,28 +5743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>818.5152063210749</v>
+        <v>867.2976087757874</v>
       </c>
       <c r="AB13" t="n">
-        <v>1119.928615630858</v>
+        <v>1186.674850797103</v>
       </c>
       <c r="AC13" t="n">
-        <v>1013.044200384732</v>
+        <v>1073.42026854564</v>
       </c>
       <c r="AD13" t="n">
-        <v>818515.2063210749</v>
+        <v>867297.6087757874</v>
       </c>
       <c r="AE13" t="n">
-        <v>1119928.615630858</v>
+        <v>1186674.850797103</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.986216480485936e-06</v>
+        <v>3.675020509033268e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.651041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1013044.200384732</v>
+        <v>1073420.26854564</v>
       </c>
     </row>
     <row r="14">
@@ -5849,28 +5849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>801.1804959327351</v>
+        <v>849.9628983874478</v>
       </c>
       <c r="AB14" t="n">
-        <v>1096.210500124083</v>
+        <v>1162.956735290328</v>
       </c>
       <c r="AC14" t="n">
-        <v>991.5897085333397</v>
+        <v>1051.965776694247</v>
       </c>
       <c r="AD14" t="n">
-        <v>801180.495932735</v>
+        <v>849962.8983874478</v>
       </c>
       <c r="AE14" t="n">
-        <v>1096210.500124083</v>
+        <v>1162956.735290328</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.997595465831357e-06</v>
+        <v>3.69607461110485e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.607291666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>991589.7085333397</v>
+        <v>1051965.776694247</v>
       </c>
     </row>
     <row r="15">
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>787.5034504920239</v>
+        <v>836.2858529467366</v>
       </c>
       <c r="AB15" t="n">
-        <v>1077.496963163442</v>
+        <v>1144.243198329687</v>
       </c>
       <c r="AC15" t="n">
-        <v>974.6621652756082</v>
+        <v>1035.038233436516</v>
       </c>
       <c r="AD15" t="n">
-        <v>787503.450492024</v>
+        <v>836285.8529467365</v>
       </c>
       <c r="AE15" t="n">
-        <v>1077496.963163442</v>
+        <v>1144243.198329687</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.003868496214088e-06</v>
+        <v>3.707681359682774e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>974662.1652756082</v>
+        <v>1035038.233436516</v>
       </c>
     </row>
     <row r="16">
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>781.3291554649628</v>
+        <v>830.1115579196754</v>
       </c>
       <c r="AB16" t="n">
-        <v>1069.049020316745</v>
+        <v>1135.795255482989</v>
       </c>
       <c r="AC16" t="n">
-        <v>967.0204822374374</v>
+        <v>1027.396550398345</v>
       </c>
       <c r="AD16" t="n">
-        <v>781329.1554649628</v>
+        <v>830111.5579196754</v>
       </c>
       <c r="AE16" t="n">
-        <v>1069049.020316745</v>
+        <v>1135795.255482989</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>3.717398637561966e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.563541666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>967020.4822374374</v>
+        <v>1027396.550398345</v>
       </c>
     </row>
     <row r="17">
@@ -6167,28 +6167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>784.759749631671</v>
+        <v>833.5421520863837</v>
       </c>
       <c r="AB17" t="n">
-        <v>1073.742910602768</v>
+        <v>1140.489145769012</v>
       </c>
       <c r="AC17" t="n">
-        <v>971.2663942224791</v>
+        <v>1031.642462383387</v>
       </c>
       <c r="AD17" t="n">
-        <v>784759.749631671</v>
+        <v>833542.1520863837</v>
       </c>
       <c r="AE17" t="n">
-        <v>1073742.910602768</v>
+        <v>1140489.145769012</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.008974451176777e-06</v>
+        <v>3.717128713176433e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.564583333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>971266.3942224791</v>
+        <v>1031642.462383387</v>
       </c>
     </row>
   </sheetData>
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2961.599825032818</v>
+        <v>3055.624270748536</v>
       </c>
       <c r="AB2" t="n">
-        <v>4052.191537173137</v>
+        <v>4180.839931867178</v>
       </c>
       <c r="AC2" t="n">
-        <v>3665.456064151721</v>
+        <v>3781.826436615315</v>
       </c>
       <c r="AD2" t="n">
-        <v>2961599.825032818</v>
+        <v>3055624.270748536</v>
       </c>
       <c r="AE2" t="n">
-        <v>4052191.537173137</v>
+        <v>4180839.931867179</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540871538105957e-07</v>
+        <v>1.818637361721941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3665456.064151722</v>
+        <v>3781826.436615315</v>
       </c>
     </row>
     <row r="3">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1305.366229655447</v>
+        <v>1364.099538973012</v>
       </c>
       <c r="AB3" t="n">
-        <v>1786.059664108229</v>
+        <v>1866.421169047256</v>
       </c>
       <c r="AC3" t="n">
-        <v>1615.600636516221</v>
+        <v>1688.292552211949</v>
       </c>
       <c r="AD3" t="n">
-        <v>1305366.229655447</v>
+        <v>1364099.538973012</v>
       </c>
       <c r="AE3" t="n">
-        <v>1786059.664108229</v>
+        <v>1866421.169047256</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.537677002558709e-06</v>
+        <v>2.931049680257017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1615600.636516221</v>
+        <v>1688292.552211948</v>
       </c>
     </row>
     <row r="4">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1037.273156603689</v>
+        <v>1096.006376412704</v>
       </c>
       <c r="AB4" t="n">
-        <v>1419.242894127169</v>
+        <v>1499.604276596648</v>
       </c>
       <c r="AC4" t="n">
-        <v>1283.792344231584</v>
+        <v>1356.484149146085</v>
       </c>
       <c r="AD4" t="n">
-        <v>1037273.156603689</v>
+        <v>1096006.376412704</v>
       </c>
       <c r="AE4" t="n">
-        <v>1419242.894127169</v>
+        <v>1499604.276596648</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.749864053849076e-06</v>
+        <v>3.335510947353039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1283792.344231584</v>
+        <v>1356484.149146085</v>
       </c>
     </row>
     <row r="5">
@@ -6782,28 +6782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.1175399866491</v>
+        <v>983.0871371714976</v>
       </c>
       <c r="AB5" t="n">
-        <v>1280.83731680089</v>
+        <v>1345.103191821582</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.596000951877</v>
+        <v>1216.728431058316</v>
       </c>
       <c r="AD5" t="n">
-        <v>936117.5399866492</v>
+        <v>983087.1371714976</v>
       </c>
       <c r="AE5" t="n">
-        <v>1280837.31680089</v>
+        <v>1345103.191821582</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.857617648885578e-06</v>
+        <v>3.540905929363394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.4625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158596.000951877</v>
+        <v>1216728.431058316</v>
       </c>
     </row>
     <row r="6">
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>874.0110764296203</v>
+        <v>920.9806736144686</v>
       </c>
       <c r="AB6" t="n">
-        <v>1195.860513418366</v>
+        <v>1260.126388439058</v>
       </c>
       <c r="AC6" t="n">
-        <v>1081.729264418489</v>
+        <v>1139.861694524928</v>
       </c>
       <c r="AD6" t="n">
-        <v>874011.0764296203</v>
+        <v>920980.6736144687</v>
       </c>
       <c r="AE6" t="n">
-        <v>1195860.513418366</v>
+        <v>1260126.388439058</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926284155526486e-06</v>
+        <v>3.67179488848764e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.161458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1081729.264418489</v>
+        <v>1139861.694524928</v>
       </c>
     </row>
     <row r="7">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>819.378730463338</v>
+        <v>878.0266094177809</v>
       </c>
       <c r="AB7" t="n">
-        <v>1121.110127458299</v>
+        <v>1201.35474280558</v>
       </c>
       <c r="AC7" t="n">
-        <v>1014.112950381625</v>
+        <v>1086.699132264187</v>
       </c>
       <c r="AD7" t="n">
-        <v>819378.730463338</v>
+        <v>878026.609417781</v>
       </c>
       <c r="AE7" t="n">
-        <v>1121110.127458299</v>
+        <v>1201354.74280558</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.972917013882619e-06</v>
+        <v>3.760684313475315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.967708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1014112.950381625</v>
+        <v>1086699.132264187</v>
       </c>
     </row>
     <row r="8">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>785.7080077272398</v>
+        <v>832.7628562581087</v>
       </c>
       <c r="AB8" t="n">
-        <v>1075.04035916332</v>
+        <v>1139.422878836661</v>
       </c>
       <c r="AC8" t="n">
-        <v>972.4400161133923</v>
+        <v>1030.677958470544</v>
       </c>
       <c r="AD8" t="n">
-        <v>785708.0077272397</v>
+        <v>832762.8562581087</v>
       </c>
       <c r="AE8" t="n">
-        <v>1075040.35916332</v>
+        <v>1139422.878836661</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.006118401708992e-06</v>
+        <v>3.823971282722203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.836458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>972440.0161133923</v>
+        <v>1030677.958470544</v>
       </c>
     </row>
     <row r="9">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>756.1709475627497</v>
+        <v>803.2257960936187</v>
       </c>
       <c r="AB9" t="n">
-        <v>1034.626450363137</v>
+        <v>1099.008970036479</v>
       </c>
       <c r="AC9" t="n">
-        <v>935.8831540478219</v>
+        <v>994.1210964049735</v>
       </c>
       <c r="AD9" t="n">
-        <v>756170.9475627497</v>
+        <v>803225.7960936186</v>
       </c>
       <c r="AE9" t="n">
-        <v>1034626.450363137</v>
+        <v>1099008.970036478</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.031774019574826e-06</v>
+        <v>3.872874849867526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.7375</v>
       </c>
       <c r="AH9" t="n">
-        <v>935883.1540478219</v>
+        <v>994121.0964049735</v>
       </c>
     </row>
     <row r="10">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>728.2660556809859</v>
+        <v>775.3209042118548</v>
       </c>
       <c r="AB10" t="n">
-        <v>996.4457462135631</v>
+        <v>1060.828265886905</v>
       </c>
       <c r="AC10" t="n">
-        <v>901.3463627153284</v>
+        <v>959.58430507248</v>
       </c>
       <c r="AD10" t="n">
-        <v>728266.0556809859</v>
+        <v>775320.9042118548</v>
       </c>
       <c r="AE10" t="n">
-        <v>996445.7462135631</v>
+        <v>1060828.265886904</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.053053090863547e-06</v>
+        <v>3.91343604379394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.657291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>901346.3627153283</v>
+        <v>959584.30507248</v>
       </c>
     </row>
     <row r="11">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>709.7743262628314</v>
+        <v>756.8291747937004</v>
       </c>
       <c r="AB11" t="n">
-        <v>971.1445462261186</v>
+        <v>1035.52706589946</v>
       </c>
       <c r="AC11" t="n">
-        <v>878.4598737442282</v>
+        <v>936.6978161013797</v>
       </c>
       <c r="AD11" t="n">
-        <v>709774.3262628315</v>
+        <v>756829.1747937005</v>
       </c>
       <c r="AE11" t="n">
-        <v>971144.5462261186</v>
+        <v>1035527.06589946</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.066182730594885e-06</v>
+        <v>3.938463163450664e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.608333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>878459.8737442282</v>
+        <v>936697.8161013797</v>
       </c>
     </row>
     <row r="12">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>708.7604021441733</v>
+        <v>755.8152506750422</v>
       </c>
       <c r="AB12" t="n">
-        <v>969.7572505157954</v>
+        <v>1034.139770189137</v>
       </c>
       <c r="AC12" t="n">
-        <v>877.2049795894164</v>
+        <v>935.442921946568</v>
       </c>
       <c r="AD12" t="n">
-        <v>708760.4021441733</v>
+        <v>755815.2506750422</v>
       </c>
       <c r="AE12" t="n">
-        <v>969757.2505157953</v>
+        <v>1034139.770189137</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.067993715385415e-06</v>
+        <v>3.94191517995504e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.602083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>877204.9795894164</v>
+        <v>935442.9219465681</v>
       </c>
     </row>
     <row r="13">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>711.8807520444833</v>
+        <v>758.9356005753523</v>
       </c>
       <c r="AB13" t="n">
-        <v>974.0266509095214</v>
+        <v>1038.409170582863</v>
       </c>
       <c r="AC13" t="n">
-        <v>881.0669144017063</v>
+        <v>939.304856758858</v>
       </c>
       <c r="AD13" t="n">
-        <v>711880.7520444833</v>
+        <v>758935.6005753523</v>
       </c>
       <c r="AE13" t="n">
-        <v>974026.6509095214</v>
+        <v>1038409.170582863</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.067842799986204e-06</v>
+        <v>3.941627511913009e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.602083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>881066.9144017063</v>
+        <v>939304.8567588581</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.928264593044</v>
+        <v>1017.33081790357</v>
       </c>
       <c r="AB2" t="n">
-        <v>1320.257421246823</v>
+        <v>1391.956906523776</v>
       </c>
       <c r="AC2" t="n">
-        <v>1194.253905955954</v>
+        <v>1259.110492988934</v>
       </c>
       <c r="AD2" t="n">
-        <v>964928.2645930439</v>
+        <v>1017330.81790357</v>
       </c>
       <c r="AE2" t="n">
-        <v>1320257.421246823</v>
+        <v>1391956.906523776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.669176840333535e-06</v>
+        <v>3.554909841433501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.509375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1194253.905955954</v>
+        <v>1259110.492988934</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.1603869877671</v>
+        <v>674.9289056065102</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.3179745415209</v>
+        <v>923.4675044126753</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.6378029361913</v>
+        <v>835.3330618863115</v>
       </c>
       <c r="AD3" t="n">
-        <v>633160.3869877671</v>
+        <v>674928.9056065101</v>
       </c>
       <c r="AE3" t="n">
-        <v>866317.9745415209</v>
+        <v>923467.5044126754</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.083776656808632e-06</v>
+        <v>4.437898948536939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.417708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>783637.8029361913</v>
+        <v>835333.0618863115</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.7326063487161</v>
+        <v>580.5863763134796</v>
       </c>
       <c r="AB4" t="n">
-        <v>737.1177192115011</v>
+        <v>794.3838937353049</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.7682386411711</v>
+        <v>718.5690098420039</v>
       </c>
       <c r="AD4" t="n">
-        <v>538732.6063487161</v>
+        <v>580586.3763134796</v>
       </c>
       <c r="AE4" t="n">
-        <v>737117.7192115012</v>
+        <v>794383.8937353049</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215633544014157e-06</v>
+        <v>4.718719610950421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>666768.2386411711</v>
+        <v>718569.0098420039</v>
       </c>
     </row>
     <row r="5">
@@ -8245,28 +8245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.4808901890545</v>
+        <v>577.334660153818</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.66857770626</v>
+        <v>789.9347522300637</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.7437169567809</v>
+        <v>714.5444881576136</v>
       </c>
       <c r="AD5" t="n">
-        <v>535480.8901890545</v>
+        <v>577334.6601538181</v>
       </c>
       <c r="AE5" t="n">
-        <v>732668.5777062599</v>
+        <v>789934.7522300638</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.224053524040052e-06</v>
+        <v>4.736651964872099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>662743.7169567809</v>
+        <v>714544.4881576137</v>
       </c>
     </row>
   </sheetData>
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1451.566147103389</v>
+        <v>1517.31167203457</v>
       </c>
       <c r="AB2" t="n">
-        <v>1986.096841045651</v>
+        <v>2076.052768744347</v>
       </c>
       <c r="AC2" t="n">
-        <v>1796.546546040677</v>
+        <v>1877.917206253747</v>
       </c>
       <c r="AD2" t="n">
-        <v>1451566.147103389</v>
+        <v>1517311.67203457</v>
       </c>
       <c r="AE2" t="n">
-        <v>1986096.841045651</v>
+        <v>2076052.768744347</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381615503921726e-06</v>
+        <v>2.805157141185871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.146875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1796546.546040677</v>
+        <v>1877917.206253747</v>
       </c>
     </row>
     <row r="3">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>842.8619162647052</v>
+        <v>897.6355556411354</v>
       </c>
       <c r="AB3" t="n">
-        <v>1153.24085827677</v>
+        <v>1228.184568114027</v>
       </c>
       <c r="AC3" t="n">
-        <v>1043.177169346544</v>
+        <v>1110.968356701091</v>
       </c>
       <c r="AD3" t="n">
-        <v>842861.9162647052</v>
+        <v>897635.5556411354</v>
       </c>
       <c r="AE3" t="n">
-        <v>1153240.85827677</v>
+        <v>1228184.568114027</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865406473870064e-06</v>
+        <v>3.78742007203722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.995833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1043177.169346544</v>
+        <v>1110968.356701091</v>
       </c>
     </row>
     <row r="4">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>717.870507844347</v>
+        <v>761.6724406831279</v>
       </c>
       <c r="AB4" t="n">
-        <v>982.2220990442712</v>
+        <v>1042.153835959185</v>
       </c>
       <c r="AC4" t="n">
-        <v>888.4802004688594</v>
+        <v>942.6921365273353</v>
       </c>
       <c r="AD4" t="n">
-        <v>717870.507844347</v>
+        <v>761672.4406831278</v>
       </c>
       <c r="AE4" t="n">
-        <v>982222.0990442712</v>
+        <v>1042153.835959185</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.032953130129228e-06</v>
+        <v>4.127597710427298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.254166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>888480.2004688594</v>
+        <v>942692.1365273353</v>
       </c>
     </row>
     <row r="5">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.0646208898085</v>
+        <v>682.9518050746099</v>
       </c>
       <c r="AB5" t="n">
-        <v>874.39640784271</v>
+        <v>934.4447894102736</v>
       </c>
       <c r="AC5" t="n">
-        <v>790.9452419012671</v>
+        <v>845.2626902104556</v>
       </c>
       <c r="AD5" t="n">
-        <v>639064.6208898084</v>
+        <v>682951.8050746098</v>
       </c>
       <c r="AE5" t="n">
-        <v>874396.40784271</v>
+        <v>934444.7894102737</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.121559534881671e-06</v>
+        <v>4.307499346114359e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.909375000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>790945.2419012671</v>
+        <v>845262.6902104556</v>
       </c>
     </row>
     <row r="6">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>599.2240619912253</v>
+        <v>643.1112461760268</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.8847975162583</v>
+        <v>879.9331790838221</v>
       </c>
       <c r="AC6" t="n">
-        <v>741.6361431568464</v>
+        <v>795.9535914660346</v>
       </c>
       <c r="AD6" t="n">
-        <v>599224.0619912253</v>
+        <v>643111.2461760269</v>
       </c>
       <c r="AE6" t="n">
-        <v>819884.7975162583</v>
+        <v>879933.1790838221</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.167473762798846e-06</v>
+        <v>4.400721102788562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>741636.1431568464</v>
+        <v>795953.5914660346</v>
       </c>
     </row>
     <row r="7">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>595.8132549007223</v>
+        <v>639.7004390855236</v>
       </c>
       <c r="AB7" t="n">
-        <v>815.2179807808429</v>
+        <v>875.2663623484066</v>
       </c>
       <c r="AC7" t="n">
-        <v>737.4147208607407</v>
+        <v>791.732169169929</v>
       </c>
       <c r="AD7" t="n">
-        <v>595813.2549007223</v>
+        <v>639700.4390855236</v>
       </c>
       <c r="AE7" t="n">
-        <v>815217.9807808429</v>
+        <v>875266.3623484066</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.173595659854469e-06</v>
+        <v>4.413150670345123e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.720833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>737414.7208607406</v>
+        <v>791732.169169929</v>
       </c>
     </row>
   </sheetData>
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.4200587966421</v>
+        <v>737.4819080810174</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.5584512782001</v>
+        <v>1009.055282041999</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.7928727702854</v>
+        <v>912.7524621418935</v>
       </c>
       <c r="AD2" t="n">
-        <v>687420.0587966421</v>
+        <v>737481.9080810174</v>
       </c>
       <c r="AE2" t="n">
-        <v>940558.4512782001</v>
+        <v>1009055.282042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.919671169956871e-06</v>
+        <v>4.27473273756345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.490625</v>
       </c>
       <c r="AH2" t="n">
-        <v>850792.8727702854</v>
+        <v>912752.4621418935</v>
       </c>
     </row>
     <row r="3">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.0510784366751</v>
+        <v>537.1517802786285</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.0872138630154</v>
+        <v>734.9547632412831</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.180644680328</v>
+        <v>664.8117121530231</v>
       </c>
       <c r="AD3" t="n">
-        <v>497051.0784366751</v>
+        <v>537151.7802786285</v>
       </c>
       <c r="AE3" t="n">
-        <v>680087.2138630154</v>
+        <v>734954.7632412831</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243405803301457e-06</v>
+        <v>4.995626532865013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.120833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>615180.644680328</v>
+        <v>664811.7121530231</v>
       </c>
     </row>
     <row r="4">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.9737965562793</v>
+        <v>539.0744983982328</v>
       </c>
       <c r="AB4" t="n">
-        <v>682.7179616185947</v>
+        <v>737.5855109968626</v>
       </c>
       <c r="AC4" t="n">
-        <v>617.5603175623925</v>
+        <v>667.1913850350876</v>
       </c>
       <c r="AD4" t="n">
-        <v>498973.7965562793</v>
+        <v>539074.4983982327</v>
       </c>
       <c r="AE4" t="n">
-        <v>682717.9616185947</v>
+        <v>737585.5109968625</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246903746395402e-06</v>
+        <v>5.003415768902847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.108333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>617560.3175623924</v>
+        <v>667191.3850350876</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3346.371293599543</v>
+        <v>3453.095774347278</v>
       </c>
       <c r="AB2" t="n">
-        <v>4578.652835385324</v>
+        <v>4724.677978296174</v>
       </c>
       <c r="AC2" t="n">
-        <v>4141.672634955589</v>
+        <v>4273.761343174599</v>
       </c>
       <c r="AD2" t="n">
-        <v>3346371.293599543</v>
+        <v>3453095.774347278</v>
       </c>
       <c r="AE2" t="n">
-        <v>4578652.835385324</v>
+        <v>4724677.978296174</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.934698688845554e-07</v>
+        <v>1.689340367096119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4141672.63495559</v>
+        <v>4273761.343174598</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1386.481759588404</v>
+        <v>1445.782659880343</v>
       </c>
       <c r="AB3" t="n">
-        <v>1897.045510727119</v>
+        <v>1978.183618677631</v>
       </c>
       <c r="AC3" t="n">
-        <v>1715.994149703419</v>
+        <v>1789.388550509183</v>
       </c>
       <c r="AD3" t="n">
-        <v>1386481.759588404</v>
+        <v>1445782.659880343</v>
       </c>
       <c r="AE3" t="n">
-        <v>1897045.510727119</v>
+        <v>1978183.618677631</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491409697441712e-06</v>
+        <v>2.819903270954553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1715994.149703419</v>
+        <v>1789388.550509183</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1105.631028166768</v>
+        <v>1153.140038985686</v>
       </c>
       <c r="AB4" t="n">
-        <v>1512.773149736227</v>
+        <v>1577.777074288304</v>
       </c>
       <c r="AC4" t="n">
-        <v>1368.396203515851</v>
+        <v>1427.196244742259</v>
       </c>
       <c r="AD4" t="n">
-        <v>1105631.028166768</v>
+        <v>1153140.038985686</v>
       </c>
       <c r="AE4" t="n">
-        <v>1512773.149736227</v>
+        <v>1577777.074288304</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707822636891988e-06</v>
+        <v>3.229088994287008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.121874999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1368396.203515851</v>
+        <v>1427196.244742259</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>979.9313528264349</v>
+        <v>1027.525614991374</v>
       </c>
       <c r="AB5" t="n">
-        <v>1340.785308457288</v>
+        <v>1405.905877662014</v>
       </c>
       <c r="AC5" t="n">
-        <v>1212.822640422123</v>
+        <v>1271.728193899243</v>
       </c>
       <c r="AD5" t="n">
-        <v>979931.3528264349</v>
+        <v>1027525.614991374</v>
       </c>
       <c r="AE5" t="n">
-        <v>1340785.308457288</v>
+        <v>1405905.877662014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.823133194124997e-06</v>
+        <v>3.447114006511834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.544791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1212822.640422123</v>
+        <v>1271728.193899243</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>914.9498423331745</v>
+        <v>962.3735122975213</v>
       </c>
       <c r="AB6" t="n">
-        <v>1251.874739018494</v>
+        <v>1316.761896448373</v>
       </c>
       <c r="AC6" t="n">
-        <v>1132.397570943799</v>
+        <v>1191.091989138268</v>
       </c>
       <c r="AD6" t="n">
-        <v>914949.8423331745</v>
+        <v>962373.5122975213</v>
       </c>
       <c r="AE6" t="n">
-        <v>1251874.739018494</v>
+        <v>1316761.896448373</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.893276710781652e-06</v>
+        <v>3.579738819395677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.228125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1132397.570943799</v>
+        <v>1191091.989138268</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>871.0024476082256</v>
+        <v>918.4261175725724</v>
       </c>
       <c r="AB7" t="n">
-        <v>1191.743974733598</v>
+        <v>1256.631132163477</v>
       </c>
       <c r="AC7" t="n">
-        <v>1078.005602408197</v>
+        <v>1136.700020602665</v>
       </c>
       <c r="AD7" t="n">
-        <v>871002.4476082255</v>
+        <v>918426.1175725723</v>
       </c>
       <c r="AE7" t="n">
-        <v>1191743.974733598</v>
+        <v>1256631.132163477</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.939789788991075e-06</v>
+        <v>3.667684057789867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1078005.602408197</v>
+        <v>1136700.020602665</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>824.4265466797191</v>
+        <v>871.9354679900865</v>
       </c>
       <c r="AB8" t="n">
-        <v>1128.016772299486</v>
+        <v>1193.020574382015</v>
       </c>
       <c r="AC8" t="n">
-        <v>1020.360434732706</v>
+        <v>1079.160365177887</v>
       </c>
       <c r="AD8" t="n">
-        <v>824426.5466797191</v>
+        <v>871935.4679900865</v>
       </c>
       <c r="AE8" t="n">
-        <v>1128016.772299486</v>
+        <v>1193020.574382015</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.97538500639893e-06</v>
+        <v>3.73498620164137e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.886458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1020360.434732706</v>
+        <v>1079160.365177887</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>794.7253850632811</v>
+        <v>842.2343063736486</v>
       </c>
       <c r="AB9" t="n">
-        <v>1087.378332653103</v>
+        <v>1152.382134735632</v>
       </c>
       <c r="AC9" t="n">
-        <v>983.6004707297652</v>
+        <v>1042.400401174946</v>
       </c>
       <c r="AD9" t="n">
-        <v>794725.3850632812</v>
+        <v>842234.3063736486</v>
       </c>
       <c r="AE9" t="n">
-        <v>1087378.332653103</v>
+        <v>1152382.134735632</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.000660601953247e-06</v>
+        <v>3.782776379418277e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>983600.4707297652</v>
+        <v>1042400.401174946</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>770.0231131259878</v>
+        <v>817.5320344363552</v>
       </c>
       <c r="AB10" t="n">
-        <v>1053.579594401174</v>
+        <v>1118.583396483702</v>
       </c>
       <c r="AC10" t="n">
-        <v>953.0274366197731</v>
+        <v>1011.827367064954</v>
       </c>
       <c r="AD10" t="n">
-        <v>770023.1131259878</v>
+        <v>817532.0344363551</v>
       </c>
       <c r="AE10" t="n">
-        <v>1053579.594401174</v>
+        <v>1118583.396483702</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.0227954430304e-06</v>
+        <v>3.824628132737699e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.702083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>953027.436619773</v>
+        <v>1011827.367064954</v>
       </c>
     </row>
     <row r="11">
@@ -10832,28 +10832,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>745.2816488571685</v>
+        <v>792.7905701675357</v>
       </c>
       <c r="AB11" t="n">
-        <v>1019.727231472207</v>
+        <v>1084.731033554736</v>
       </c>
       <c r="AC11" t="n">
-        <v>922.405895696657</v>
+        <v>981.2058261418381</v>
       </c>
       <c r="AD11" t="n">
-        <v>745281.6488571685</v>
+        <v>792790.5701675358</v>
       </c>
       <c r="AE11" t="n">
-        <v>1019727.231472207</v>
+        <v>1084731.033554736</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.039845253049289e-06</v>
+        <v>3.856865294078334e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>922405.895696657</v>
+        <v>981205.8261418381</v>
       </c>
     </row>
     <row r="12">
@@ -10938,28 +10938,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>728.597453154173</v>
+        <v>776.1063744645403</v>
       </c>
       <c r="AB12" t="n">
-        <v>996.8991788566024</v>
+        <v>1061.902980939131</v>
       </c>
       <c r="AC12" t="n">
-        <v>901.7565203833126</v>
+        <v>960.5564508284938</v>
       </c>
       <c r="AD12" t="n">
-        <v>728597.453154173</v>
+        <v>776106.3744645403</v>
       </c>
       <c r="AE12" t="n">
-        <v>996899.1788566024</v>
+        <v>1061902.980939131</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.050912673587865e-06</v>
+        <v>3.877791170738046e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.595833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>901756.5203833126</v>
+        <v>960556.4508284938</v>
       </c>
     </row>
     <row r="13">
@@ -11044,28 +11044,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>728.2466280812142</v>
+        <v>775.7555493915816</v>
       </c>
       <c r="AB13" t="n">
-        <v>996.4191645144704</v>
+        <v>1061.422966596999</v>
       </c>
       <c r="AC13" t="n">
-        <v>901.3223179362892</v>
+        <v>960.1222483814704</v>
       </c>
       <c r="AD13" t="n">
-        <v>728246.6280812143</v>
+        <v>775755.5493915816</v>
       </c>
       <c r="AE13" t="n">
-        <v>996419.1645144704</v>
+        <v>1061422.966596999</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.053006509905974e-06</v>
+        <v>3.881750120376369e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.588541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>901322.3179362892</v>
+        <v>960122.2483814704</v>
       </c>
     </row>
     <row r="14">
@@ -11150,28 +11150,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>731.4627554709823</v>
+        <v>778.9716767813495</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000.819611894678</v>
+        <v>1065.823413977206</v>
       </c>
       <c r="AC14" t="n">
-        <v>905.3027927945961</v>
+        <v>964.1027232397772</v>
       </c>
       <c r="AD14" t="n">
-        <v>731462.7554709823</v>
+        <v>778971.6767813495</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000819.611894678</v>
+        <v>1065823.413977206</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.052408270957944e-06</v>
+        <v>3.880618991908277e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.590625</v>
       </c>
       <c r="AH14" t="n">
-        <v>905302.7927945962</v>
+        <v>964102.7232397773</v>
       </c>
     </row>
   </sheetData>
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.3176024042623</v>
+        <v>595.2302064736846</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.4958454411088</v>
+        <v>814.4202282006887</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.1558910692165</v>
+        <v>736.6931046671837</v>
       </c>
       <c r="AD2" t="n">
-        <v>546317.6024042623</v>
+        <v>595230.2064736845</v>
       </c>
       <c r="AE2" t="n">
-        <v>747495.8454411088</v>
+        <v>814420.2282006887</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079823900133195e-06</v>
+        <v>4.768135115524401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.964583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>676155.8910692165</v>
+        <v>736693.1046671837</v>
       </c>
     </row>
     <row r="3">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.8443861456299</v>
+        <v>509.9574907388044</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.2300613127411</v>
+        <v>697.7463365655138</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.7456484436221</v>
+        <v>631.1544054968346</v>
       </c>
       <c r="AD3" t="n">
-        <v>470844.3861456299</v>
+        <v>509957.4907388045</v>
       </c>
       <c r="AE3" t="n">
-        <v>644230.0613127411</v>
+        <v>697746.3365655139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.242880662011108e-06</v>
+        <v>5.141953625872313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>582745.6484436222</v>
+        <v>631154.4054968345</v>
       </c>
     </row>
   </sheetData>
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2085.483415473986</v>
+        <v>2165.165198794564</v>
       </c>
       <c r="AB2" t="n">
-        <v>2853.450414086408</v>
+        <v>2962.474545337805</v>
       </c>
       <c r="AC2" t="n">
-        <v>2581.12111140881</v>
+        <v>2679.740132589903</v>
       </c>
       <c r="AD2" t="n">
-        <v>2085483.415473986</v>
+        <v>2165165.198794564</v>
       </c>
       <c r="AE2" t="n">
-        <v>2853450.414086408</v>
+        <v>2962474.545337806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.150001271547412e-06</v>
+        <v>2.253986599291046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2581121.11140881</v>
+        <v>2679740.132589903</v>
       </c>
     </row>
     <row r="3">
@@ -11956,28 +11956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.358542709675</v>
+        <v>1123.33499604296</v>
       </c>
       <c r="AB3" t="n">
-        <v>1459.038802554054</v>
+        <v>1536.996499628372</v>
       </c>
       <c r="AC3" t="n">
-        <v>1319.790187012115</v>
+        <v>1390.307710891976</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066358.542709675</v>
+        <v>1123334.99604296</v>
       </c>
       <c r="AE3" t="n">
-        <v>1459038.802554053</v>
+        <v>1536996.499628372</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688306355660059e-06</v>
+        <v>3.309057124811003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1319790.187012115</v>
+        <v>1390307.710891976</v>
       </c>
     </row>
     <row r="4">
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.7871700959353</v>
+        <v>935.6782825746486</v>
       </c>
       <c r="AB4" t="n">
-        <v>1202.395375479</v>
+        <v>1280.236305431121</v>
       </c>
       <c r="AC4" t="n">
-        <v>1087.640448415792</v>
+        <v>1158.052349263714</v>
       </c>
       <c r="AD4" t="n">
-        <v>878787.1700959352</v>
+        <v>935678.2825746486</v>
       </c>
       <c r="AE4" t="n">
-        <v>1202395.375479</v>
+        <v>1280236.305431121</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.878936636746744e-06</v>
+        <v>3.682689841242969e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1087640.448415792</v>
+        <v>1158052.349263714</v>
       </c>
     </row>
     <row r="5">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>796.183837989459</v>
+        <v>841.6797493100665</v>
       </c>
       <c r="AB5" t="n">
-        <v>1089.373852289102</v>
+        <v>1151.623365295908</v>
       </c>
       <c r="AC5" t="n">
-        <v>985.4055407724336</v>
+        <v>1041.71404762561</v>
       </c>
       <c r="AD5" t="n">
-        <v>796183.837989459</v>
+        <v>841679.7493100666</v>
       </c>
       <c r="AE5" t="n">
-        <v>1089373.852289102</v>
+        <v>1151623.365295908</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.979071955686243e-06</v>
+        <v>3.878953682500869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.184374999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>985405.5407724336</v>
+        <v>1041714.04762561</v>
       </c>
     </row>
     <row r="6">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>734.5957344126376</v>
+        <v>791.4015060367793</v>
       </c>
       <c r="AB6" t="n">
-        <v>1005.106291899927</v>
+        <v>1082.83045472985</v>
       </c>
       <c r="AC6" t="n">
-        <v>909.1803580765373</v>
+        <v>979.4866358925208</v>
       </c>
       <c r="AD6" t="n">
-        <v>734595.7344126377</v>
+        <v>791401.5060367794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1005106.291899926</v>
+        <v>1082830.45472985</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.038779971948305e-06</v>
+        <v>3.995980569213655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.943750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>909180.3580765374</v>
+        <v>979486.6358925208</v>
       </c>
     </row>
     <row r="7">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>693.4770481062557</v>
+        <v>739.0582107728837</v>
       </c>
       <c r="AB7" t="n">
-        <v>948.8458912671226</v>
+        <v>1011.212048926578</v>
       </c>
       <c r="AC7" t="n">
-        <v>858.2893711181601</v>
+        <v>914.7033902220488</v>
       </c>
       <c r="AD7" t="n">
-        <v>693477.0481062557</v>
+        <v>739058.2107728837</v>
       </c>
       <c r="AE7" t="n">
-        <v>948845.8912671226</v>
+        <v>1011212.048926578</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.082161577513709e-06</v>
+        <v>4.081007916590913e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.779166666666668</v>
       </c>
       <c r="AH7" t="n">
-        <v>858289.3711181602</v>
+        <v>914703.3902220489</v>
       </c>
     </row>
     <row r="8">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>662.3205776877292</v>
+        <v>707.9017403543569</v>
       </c>
       <c r="AB8" t="n">
-        <v>906.2162339140289</v>
+        <v>968.5823915734838</v>
       </c>
       <c r="AC8" t="n">
-        <v>819.7282284317457</v>
+        <v>876.1422475356343</v>
       </c>
       <c r="AD8" t="n">
-        <v>662320.5776877292</v>
+        <v>707901.7403543569</v>
       </c>
       <c r="AE8" t="n">
-        <v>906216.2339140289</v>
+        <v>968582.3915734838</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.11014971013655e-06</v>
+        <v>4.135864269737531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.676041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>819728.2284317457</v>
+        <v>876142.2475356343</v>
       </c>
     </row>
     <row r="9">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>654.0156012254821</v>
+        <v>699.5967638921101</v>
       </c>
       <c r="AB9" t="n">
-        <v>894.8529987286794</v>
+        <v>957.2191563881345</v>
       </c>
       <c r="AC9" t="n">
-        <v>809.4494844640852</v>
+        <v>865.8635035679741</v>
       </c>
       <c r="AD9" t="n">
-        <v>654015.6012254821</v>
+        <v>699596.7638921101</v>
       </c>
       <c r="AE9" t="n">
-        <v>894852.9987286794</v>
+        <v>957219.1563881345</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.118857129174767e-06</v>
+        <v>4.15293069071648e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.64375</v>
       </c>
       <c r="AH9" t="n">
-        <v>809449.4844640852</v>
+        <v>865863.5035679741</v>
       </c>
     </row>
     <row r="10">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>656.4687360822214</v>
+        <v>702.0498987488494</v>
       </c>
       <c r="AB10" t="n">
-        <v>898.2094860643421</v>
+        <v>960.5756437237969</v>
       </c>
       <c r="AC10" t="n">
-        <v>812.4856333592917</v>
+        <v>868.8996524631805</v>
       </c>
       <c r="AD10" t="n">
-        <v>656468.7360822214</v>
+        <v>702049.8987488494</v>
       </c>
       <c r="AE10" t="n">
-        <v>898209.4860643421</v>
+        <v>960575.6437237969</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.118546149923402e-06</v>
+        <v>4.152321175681517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.644791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>812485.6333592917</v>
+        <v>868899.6524631805</v>
       </c>
     </row>
   </sheetData>
@@ -12995,28 +12995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2631.349535286471</v>
+        <v>2724.516553414508</v>
       </c>
       <c r="AB2" t="n">
-        <v>3600.328521127646</v>
+        <v>3727.803745569187</v>
       </c>
       <c r="AC2" t="n">
-        <v>3256.718220163904</v>
+        <v>3372.02738809734</v>
       </c>
       <c r="AD2" t="n">
-        <v>2631349.535286471</v>
+        <v>2724516.553414508</v>
       </c>
       <c r="AE2" t="n">
-        <v>3600328.521127646</v>
+        <v>3727803.745569187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016014514549356e-06</v>
+        <v>1.953494237706428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.61979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3256718.220163904</v>
+        <v>3372027.38809734</v>
       </c>
     </row>
     <row r="3">
@@ -13101,28 +13101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1226.543170986114</v>
+        <v>1284.687305970116</v>
       </c>
       <c r="AB3" t="n">
-        <v>1678.210477808923</v>
+        <v>1757.765848432232</v>
       </c>
       <c r="AC3" t="n">
-        <v>1518.044425190038</v>
+        <v>1590.007142897722</v>
       </c>
       <c r="AD3" t="n">
-        <v>1226543.170986114</v>
+        <v>1284687.305970116</v>
       </c>
       <c r="AE3" t="n">
-        <v>1678210.477808923</v>
+        <v>1757765.848432232</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586103930270406e-06</v>
+        <v>3.04960691389438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.00625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1518044.425190038</v>
+        <v>1590007.142897722</v>
       </c>
     </row>
     <row r="4">
@@ -13207,28 +13207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>984.5404128997958</v>
+        <v>1042.684458375247</v>
       </c>
       <c r="AB4" t="n">
-        <v>1347.09162778704</v>
+        <v>1426.646875940801</v>
       </c>
       <c r="AC4" t="n">
-        <v>1218.527093486018</v>
+        <v>1290.489700412476</v>
       </c>
       <c r="AD4" t="n">
-        <v>984540.4128997958</v>
+        <v>1042684.458375247</v>
       </c>
       <c r="AE4" t="n">
-        <v>1347091.62778704</v>
+        <v>1426646.875940801</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.790708442647042e-06</v>
+        <v>3.443000640276107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.861458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1218527.093486018</v>
+        <v>1290489.700412476</v>
       </c>
     </row>
     <row r="5">
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>888.4129450924848</v>
+        <v>934.9112028104826</v>
       </c>
       <c r="AB5" t="n">
-        <v>1215.565785488501</v>
+        <v>1279.186753056619</v>
       </c>
       <c r="AC5" t="n">
-        <v>1099.553892978773</v>
+        <v>1157.102964694778</v>
       </c>
       <c r="AD5" t="n">
-        <v>888412.9450924848</v>
+        <v>934911.2028104826</v>
       </c>
       <c r="AE5" t="n">
-        <v>1215565.785488501</v>
+        <v>1279186.753056619</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.898114385480645e-06</v>
+        <v>3.649510377505531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.361458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1099553.892978773</v>
+        <v>1157102.964694778</v>
       </c>
     </row>
     <row r="6">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>831.9913375052342</v>
+        <v>878.489595223232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1138.367252841973</v>
+        <v>1201.988220410091</v>
       </c>
       <c r="AC6" t="n">
-        <v>1029.723079939209</v>
+        <v>1087.272151655214</v>
       </c>
       <c r="AD6" t="n">
-        <v>831991.3375052343</v>
+        <v>878489.5952232319</v>
       </c>
       <c r="AE6" t="n">
-        <v>1138367.252841973</v>
+        <v>1201988.220410091</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961948555760474e-06</v>
+        <v>3.77224453339082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.088541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1029723.079939209</v>
+        <v>1087272.151655214</v>
       </c>
     </row>
     <row r="7">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>778.7606284188721</v>
+        <v>825.3441374828905</v>
       </c>
       <c r="AB7" t="n">
-        <v>1065.534648296868</v>
+        <v>1129.272260517635</v>
       </c>
       <c r="AC7" t="n">
-        <v>963.8415169506853</v>
+        <v>1021.496100917403</v>
       </c>
       <c r="AD7" t="n">
-        <v>778760.6284188721</v>
+        <v>825344.1374828905</v>
       </c>
       <c r="AE7" t="n">
-        <v>1065534.648296868</v>
+        <v>1129272.260517634</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.007348514575245e-06</v>
+        <v>3.859535174092052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>963841.5169506853</v>
+        <v>1021496.100917403</v>
       </c>
     </row>
     <row r="8">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>743.7740768234361</v>
+        <v>790.3575858874545</v>
       </c>
       <c r="AB8" t="n">
-        <v>1017.66450490627</v>
+        <v>1081.402117127037</v>
       </c>
       <c r="AC8" t="n">
-        <v>920.5400328591184</v>
+        <v>978.1946168258357</v>
       </c>
       <c r="AD8" t="n">
-        <v>743774.0768234361</v>
+        <v>790357.5858874546</v>
       </c>
       <c r="AE8" t="n">
-        <v>1017664.50490627</v>
+        <v>1081402.117127037</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.040560564983366e-06</v>
+        <v>3.923392085745973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.777083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>920540.0328591183</v>
+        <v>978194.6168258358</v>
       </c>
     </row>
     <row r="9">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>714.1969106171759</v>
+        <v>760.7804196811943</v>
       </c>
       <c r="AB9" t="n">
-        <v>977.1957212503843</v>
+        <v>1040.933333471151</v>
       </c>
       <c r="AC9" t="n">
-        <v>883.9335331170554</v>
+        <v>941.5881170837727</v>
       </c>
       <c r="AD9" t="n">
-        <v>714196.910617176</v>
+        <v>760780.4196811944</v>
       </c>
       <c r="AE9" t="n">
-        <v>977195.7212503842</v>
+        <v>1040933.333471151</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066155172637331e-06</v>
+        <v>3.972602916745326e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.681249999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>883933.5331170554</v>
+        <v>941588.1170837727</v>
       </c>
     </row>
     <row r="10">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>694.1445778315865</v>
+        <v>740.7280868956047</v>
       </c>
       <c r="AB10" t="n">
-        <v>949.7592348866532</v>
+        <v>1013.49684710742</v>
       </c>
       <c r="AC10" t="n">
-        <v>859.1155465045284</v>
+        <v>916.7701304712457</v>
       </c>
       <c r="AD10" t="n">
-        <v>694144.5778315865</v>
+        <v>740728.0868956047</v>
       </c>
       <c r="AE10" t="n">
-        <v>949759.2348866531</v>
+        <v>1013496.84710742</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.080171267304978e-06</v>
+        <v>3.999551705149733e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.629166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>859115.5465045284</v>
+        <v>916770.1304712457</v>
       </c>
     </row>
     <row r="11">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>690.7232740579724</v>
+        <v>737.3067831219906</v>
       </c>
       <c r="AB11" t="n">
-        <v>945.0780561263244</v>
+        <v>1008.815668347091</v>
       </c>
       <c r="AC11" t="n">
-        <v>854.8811328750098</v>
+        <v>912.5357168417271</v>
       </c>
       <c r="AD11" t="n">
-        <v>690723.2740579724</v>
+        <v>737306.7831219906</v>
       </c>
       <c r="AE11" t="n">
-        <v>945078.0561263245</v>
+        <v>1008815.668347091</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.084437035247306e-06</v>
+        <v>4.007753510316292e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.613541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>854881.1328750098</v>
+        <v>912535.7168417271</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4290.259740018131</v>
+        <v>4411.188294411827</v>
       </c>
       <c r="AB2" t="n">
-        <v>5870.122649194661</v>
+        <v>6035.58243230742</v>
       </c>
       <c r="AC2" t="n">
-        <v>5309.886382324185</v>
+        <v>5459.554915960919</v>
       </c>
       <c r="AD2" t="n">
-        <v>4290259.740018131</v>
+        <v>4411188.294411827</v>
       </c>
       <c r="AE2" t="n">
-        <v>5870122.649194661</v>
+        <v>6035582.43230742</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805447591776902e-07</v>
+        <v>1.454095684819097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.62395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5309886.382324184</v>
+        <v>5459554.915960919</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1559.170284028776</v>
+        <v>1631.642075810422</v>
       </c>
       <c r="AB3" t="n">
-        <v>2133.325568346449</v>
+        <v>2232.484671091901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1929.723970244704</v>
+        <v>2019.419467394805</v>
       </c>
       <c r="AD3" t="n">
-        <v>1559170.284028776</v>
+        <v>1631642.075810422</v>
       </c>
       <c r="AE3" t="n">
-        <v>2133325.56834645</v>
+        <v>2232484.671091901</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.403451239938183e-06</v>
+        <v>2.614523213246696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.91458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1929723.970244704</v>
+        <v>2019419.467394805</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.10964882274</v>
+        <v>1279.403333818995</v>
       </c>
       <c r="AB4" t="n">
-        <v>1668.039604841143</v>
+        <v>1750.536084622671</v>
       </c>
       <c r="AC4" t="n">
-        <v>1508.844246063392</v>
+        <v>1583.467377599108</v>
       </c>
       <c r="AD4" t="n">
-        <v>1219109.64882274</v>
+        <v>1279403.333818995</v>
       </c>
       <c r="AE4" t="n">
-        <v>1668039.604841143</v>
+        <v>1750536.084622671</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.630938568960015e-06</v>
+        <v>3.038314853113905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.391666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1508844.246063392</v>
+        <v>1583467.377599108</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1074.72683882809</v>
+        <v>1135.105775170366</v>
       </c>
       <c r="AB5" t="n">
-        <v>1470.488674486437</v>
+        <v>1553.101798920614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1330.147299237268</v>
+        <v>1404.875943023695</v>
       </c>
       <c r="AD5" t="n">
-        <v>1074726.838828089</v>
+        <v>1135105.775170366</v>
       </c>
       <c r="AE5" t="n">
-        <v>1470488.674486437</v>
+        <v>1553101.798920614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.751667138531395e-06</v>
+        <v>3.26322302139508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.744791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1330147.299237268</v>
+        <v>1404875.943023695</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000.420151199856</v>
+        <v>1048.706321611314</v>
       </c>
       <c r="AB6" t="n">
-        <v>1368.818986293793</v>
+        <v>1434.886254886243</v>
       </c>
       <c r="AC6" t="n">
-        <v>1238.180823391426</v>
+        <v>1297.942724595407</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000420.151199856</v>
+        <v>1048706.321611314</v>
       </c>
       <c r="AE6" t="n">
-        <v>1368818.986293793</v>
+        <v>1434886.254886243</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.826074758754438e-06</v>
+        <v>3.401838774318679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.388541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1238180.823391426</v>
+        <v>1297942.724595407</v>
       </c>
     </row>
     <row r="7">
@@ -14776,28 +14776,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>950.2903892927817</v>
+        <v>998.5765597042392</v>
       </c>
       <c r="AB7" t="n">
-        <v>1300.229234483523</v>
+        <v>1366.296503075973</v>
       </c>
       <c r="AC7" t="n">
-        <v>1176.137181227607</v>
+        <v>1235.899082431587</v>
       </c>
       <c r="AD7" t="n">
-        <v>950290.3892927817</v>
+        <v>998576.5597042392</v>
       </c>
       <c r="AE7" t="n">
-        <v>1300229.234483523</v>
+        <v>1366296.503075973</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.876954277721183e-06</v>
+        <v>3.496623459124143e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.161458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1176137.181227607</v>
+        <v>1235899.082431587</v>
       </c>
     </row>
     <row r="8">
@@ -14882,28 +14882,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>913.9982542050018</v>
+        <v>962.2844246164594</v>
       </c>
       <c r="AB8" t="n">
-        <v>1250.572734160422</v>
+        <v>1316.640002752872</v>
       </c>
       <c r="AC8" t="n">
-        <v>1131.219827602007</v>
+        <v>1190.981728805988</v>
       </c>
       <c r="AD8" t="n">
-        <v>913998.2542050018</v>
+        <v>962284.4246164594</v>
       </c>
       <c r="AE8" t="n">
-        <v>1250572.734160422</v>
+        <v>1316640.002752872</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.913863986567e-06</v>
+        <v>3.565383447234467e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.004166666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>1131219.827602007</v>
+        <v>1190981.728805988</v>
       </c>
     </row>
     <row r="9">
@@ -14988,28 +14988,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>870.3372676546931</v>
+        <v>918.7086894121712</v>
       </c>
       <c r="AB9" t="n">
-        <v>1190.833846175507</v>
+        <v>1257.017759420606</v>
       </c>
       <c r="AC9" t="n">
-        <v>1077.182335242316</v>
+        <v>1137.049748697009</v>
       </c>
       <c r="AD9" t="n">
-        <v>870337.2676546931</v>
+        <v>918708.6894121713</v>
       </c>
       <c r="AE9" t="n">
-        <v>1190833.846175507</v>
+        <v>1257017.759420606</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.943568214403077e-06</v>
+        <v>3.620720170733611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.881249999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>1077182.335242316</v>
+        <v>1137049.748697009</v>
       </c>
     </row>
     <row r="10">
@@ -15094,28 +15094,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>845.7684609279809</v>
+        <v>894.139882685459</v>
       </c>
       <c r="AB10" t="n">
-        <v>1157.217720912764</v>
+        <v>1223.401634157864</v>
       </c>
       <c r="AC10" t="n">
-        <v>1046.774485794121</v>
+        <v>1106.641899248814</v>
       </c>
       <c r="AD10" t="n">
-        <v>845768.4609279808</v>
+        <v>894139.882685459</v>
       </c>
       <c r="AE10" t="n">
-        <v>1157217.720912764</v>
+        <v>1223401.634157863</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.964743505533745e-06</v>
+        <v>3.660168132039931e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1046774.485794121</v>
+        <v>1106641.899248814</v>
       </c>
     </row>
     <row r="11">
@@ -15200,28 +15200,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>823.2278002369737</v>
+        <v>871.5992219944519</v>
       </c>
       <c r="AB11" t="n">
-        <v>1126.376594531561</v>
+        <v>1192.560507776661</v>
       </c>
       <c r="AC11" t="n">
-        <v>1018.876793228948</v>
+        <v>1078.744206683641</v>
       </c>
       <c r="AD11" t="n">
-        <v>823227.8002369737</v>
+        <v>871599.2219944519</v>
       </c>
       <c r="AE11" t="n">
-        <v>1126376.594531561</v>
+        <v>1192560.507776661</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.983124834640228e-06</v>
+        <v>3.694411154007224e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.723958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1018876.793228948</v>
+        <v>1078744.206683641</v>
       </c>
     </row>
     <row r="12">
@@ -15306,28 +15306,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>798.774474004731</v>
+        <v>847.1458957622093</v>
       </c>
       <c r="AB12" t="n">
-        <v>1092.918474775992</v>
+        <v>1159.102388021091</v>
       </c>
       <c r="AC12" t="n">
-        <v>988.6118694640836</v>
+        <v>1048.479282918777</v>
       </c>
       <c r="AD12" t="n">
-        <v>798774.474004731</v>
+        <v>847145.8957622093</v>
       </c>
       <c r="AE12" t="n">
-        <v>1092918.474775992</v>
+        <v>1159102.388021091</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.998418100456822e-06</v>
+        <v>3.722901348284011e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.664583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>988611.8694640836</v>
+        <v>1048479.282918777</v>
       </c>
     </row>
     <row r="13">
@@ -15412,28 +15412,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>779.604262740918</v>
+        <v>827.9756844983963</v>
       </c>
       <c r="AB13" t="n">
-        <v>1066.68894599481</v>
+        <v>1132.87285923991</v>
       </c>
       <c r="AC13" t="n">
-        <v>964.8856500964035</v>
+        <v>1024.753063551096</v>
       </c>
       <c r="AD13" t="n">
-        <v>779604.262740918</v>
+        <v>827975.6844983962</v>
       </c>
       <c r="AE13" t="n">
-        <v>1066688.94599481</v>
+        <v>1132872.85923991</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.012240859944897e-06</v>
+        <v>3.748652100803415e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.6125</v>
       </c>
       <c r="AH13" t="n">
-        <v>964885.6500964036</v>
+        <v>1024753.063551096</v>
       </c>
     </row>
     <row r="14">
@@ -15518,28 +15518,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>767.45955841855</v>
+        <v>815.8309801760283</v>
       </c>
       <c r="AB14" t="n">
-        <v>1050.072025754406</v>
+        <v>1116.255938999506</v>
       </c>
       <c r="AC14" t="n">
-        <v>949.854625401749</v>
+        <v>1009.722038856442</v>
       </c>
       <c r="AD14" t="n">
-        <v>767459.5584185501</v>
+        <v>815830.9801760283</v>
       </c>
       <c r="AE14" t="n">
-        <v>1050072.025754406</v>
+        <v>1116255.938999505</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.018711087790379e-06</v>
+        <v>3.760705644535901e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.587500000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>949854.625401749</v>
+        <v>1009722.038856442</v>
       </c>
     </row>
     <row r="15">
@@ -15624,28 +15624,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>762.2560543119677</v>
+        <v>810.6274760694459</v>
       </c>
       <c r="AB15" t="n">
-        <v>1042.952361873381</v>
+        <v>1109.13627511848</v>
       </c>
       <c r="AC15" t="n">
-        <v>943.4144522490176</v>
+        <v>1003.281865703711</v>
       </c>
       <c r="AD15" t="n">
-        <v>762256.0543119677</v>
+        <v>810627.476069446</v>
       </c>
       <c r="AE15" t="n">
-        <v>1042952.36187338</v>
+        <v>1109136.27511848</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>3.768923969808051e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>943414.4522490175</v>
+        <v>1003281.865703711</v>
       </c>
     </row>
     <row r="16">
@@ -15730,28 +15730,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>765.4710738811083</v>
+        <v>813.8424956385866</v>
       </c>
       <c r="AB16" t="n">
-        <v>1047.351293484532</v>
+        <v>1113.535206729631</v>
       </c>
       <c r="AC16" t="n">
-        <v>947.3935560011399</v>
+        <v>1007.260969455833</v>
       </c>
       <c r="AD16" t="n">
-        <v>765471.0738811083</v>
+        <v>813842.4956385866</v>
       </c>
       <c r="AE16" t="n">
-        <v>1047351.293484532</v>
+        <v>1113535.206729631</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>3.768923969808051e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.571874999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>947393.5560011399</v>
+        <v>1007260.969455833</v>
       </c>
     </row>
   </sheetData>
@@ -16027,28 +16027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1638.525727560639</v>
+        <v>1716.283771129831</v>
       </c>
       <c r="AB2" t="n">
-        <v>2241.90318710183</v>
+        <v>2348.295172755973</v>
       </c>
       <c r="AC2" t="n">
-        <v>2027.939093455717</v>
+        <v>2124.177177321117</v>
       </c>
       <c r="AD2" t="n">
-        <v>1638525.727560639</v>
+        <v>1716283.771129831</v>
       </c>
       <c r="AE2" t="n">
-        <v>2241903.18710183</v>
+        <v>2348295.172755972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297985046943876e-06</v>
+        <v>2.601807593382289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2027939.093455717</v>
+        <v>2124177.177321117</v>
       </c>
     </row>
     <row r="3">
@@ -16133,28 +16133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>922.4401319374116</v>
+        <v>966.9221554023987</v>
       </c>
       <c r="AB3" t="n">
-        <v>1262.123283703266</v>
+        <v>1322.985550616437</v>
       </c>
       <c r="AC3" t="n">
-        <v>1141.66800890778</v>
+        <v>1196.721666487486</v>
       </c>
       <c r="AD3" t="n">
-        <v>922440.1319374116</v>
+        <v>966922.1554023988</v>
       </c>
       <c r="AE3" t="n">
-        <v>1262123.283703266</v>
+        <v>1322985.550616437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.804197624389079e-06</v>
+        <v>3.61650936592089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.185416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1141668.00890778</v>
+        <v>1196721.666487486</v>
       </c>
     </row>
     <row r="4">
@@ -16239,28 +16239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>770.8510796062023</v>
+        <v>815.2477622166181</v>
       </c>
       <c r="AB4" t="n">
-        <v>1054.712454666706</v>
+        <v>1115.45795445768</v>
       </c>
       <c r="AC4" t="n">
-        <v>954.0521782915425</v>
+        <v>1009.00021283931</v>
       </c>
       <c r="AD4" t="n">
-        <v>770851.0796062023</v>
+        <v>815247.7622166181</v>
       </c>
       <c r="AE4" t="n">
-        <v>1054712.454666707</v>
+        <v>1115457.95445768</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979828889473775e-06</v>
+        <v>3.968561772232208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.369791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>954052.1782915426</v>
+        <v>1009000.21283931</v>
       </c>
     </row>
     <row r="5">
@@ -16345,28 +16345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>701.1188617325428</v>
+        <v>745.5155443429584</v>
       </c>
       <c r="AB5" t="n">
-        <v>959.3017578036322</v>
+        <v>1020.047257594605</v>
       </c>
       <c r="AC5" t="n">
-        <v>867.747344427326</v>
+        <v>922.6953789750933</v>
       </c>
       <c r="AD5" t="n">
-        <v>701118.8617325427</v>
+        <v>745515.5443429584</v>
       </c>
       <c r="AE5" t="n">
-        <v>959301.7578036322</v>
+        <v>1020047.257594605</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.070189902669525e-06</v>
+        <v>4.149690184174988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.005208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>867747.344427326</v>
+        <v>922695.3789750932</v>
       </c>
     </row>
     <row r="6">
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>641.7126514130961</v>
+        <v>686.1945853695323</v>
       </c>
       <c r="AB6" t="n">
-        <v>878.0195600275339</v>
+        <v>938.8817044711565</v>
       </c>
       <c r="AC6" t="n">
-        <v>794.2226055266974</v>
+        <v>849.276152325177</v>
       </c>
       <c r="AD6" t="n">
-        <v>641712.6514130961</v>
+        <v>686194.5853695323</v>
       </c>
       <c r="AE6" t="n">
-        <v>878019.5600275339</v>
+        <v>938881.7044711565</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>4.26321432968842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.791666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>794222.6055266974</v>
+        <v>849276.152325177</v>
       </c>
     </row>
     <row r="7">
@@ -16557,28 +16557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>617.0663315718367</v>
+        <v>661.5482655282729</v>
       </c>
       <c r="AB7" t="n">
-        <v>844.2973779018305</v>
+        <v>905.1595223454532</v>
       </c>
       <c r="AC7" t="n">
-        <v>763.7188211336914</v>
+        <v>818.7723679321708</v>
       </c>
       <c r="AD7" t="n">
-        <v>617066.3315718367</v>
+        <v>661548.2655282728</v>
       </c>
       <c r="AE7" t="n">
-        <v>844297.3779018305</v>
+        <v>905159.5223454532</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.151801169869207e-06</v>
+        <v>4.313279753412041e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.701041666666668</v>
       </c>
       <c r="AH7" t="n">
-        <v>763718.8211336915</v>
+        <v>818772.3679321709</v>
       </c>
     </row>
     <row r="8">
@@ -16663,28 +16663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>616.9429967796443</v>
+        <v>661.4249307360803</v>
       </c>
       <c r="AB8" t="n">
-        <v>844.1286257980058</v>
+        <v>904.9907702416284</v>
       </c>
       <c r="AC8" t="n">
-        <v>763.5661744938106</v>
+        <v>818.6197212922903</v>
       </c>
       <c r="AD8" t="n">
-        <v>616942.9967796443</v>
+        <v>661424.9307360804</v>
       </c>
       <c r="AE8" t="n">
-        <v>844128.6257980058</v>
+        <v>904990.7702416284</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.154982895685959e-06</v>
+        <v>4.319657514395941e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.689583333333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>763566.1744938106</v>
+        <v>818619.7212922903</v>
       </c>
     </row>
   </sheetData>
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1120.011090102042</v>
+        <v>1173.237424644953</v>
       </c>
       <c r="AB2" t="n">
-        <v>1532.448584879627</v>
+        <v>1605.275203981392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1386.193842743812</v>
+        <v>1452.069991531307</v>
       </c>
       <c r="AD2" t="n">
-        <v>1120011.090102042</v>
+        <v>1173237.424644953</v>
       </c>
       <c r="AE2" t="n">
-        <v>1532448.584879627</v>
+        <v>1605275.203981392</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564185583710799e-06</v>
+        <v>3.272374062031099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1386193.842743812</v>
+        <v>1452069.991531307</v>
       </c>
     </row>
     <row r="3">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.2188254500041</v>
+        <v>757.3597296297928</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.5432649226098</v>
+        <v>1036.252994432629</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.5840480598612</v>
+        <v>937.35446303419</v>
       </c>
       <c r="AD3" t="n">
-        <v>704218.8254500042</v>
+        <v>757359.7296297929</v>
       </c>
       <c r="AE3" t="n">
-        <v>963543.2649226098</v>
+        <v>1036252.994432629</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.004490816883762e-06</v>
+        <v>4.193520145601036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.611458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>871584.0480598612</v>
+        <v>937354.46303419</v>
       </c>
     </row>
     <row r="4">
@@ -17172,28 +17172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.675309787089</v>
+        <v>646.1710544685567</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.9751911257522</v>
+        <v>884.1197437788762</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.1452781481713</v>
+        <v>799.7405963024733</v>
       </c>
       <c r="AD4" t="n">
-        <v>603675.309787089</v>
+        <v>646171.0544685567</v>
       </c>
       <c r="AE4" t="n">
-        <v>825975.1911257522</v>
+        <v>884119.7437788763</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155291630653952e-06</v>
+        <v>4.50900487877704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.009375</v>
       </c>
       <c r="AH4" t="n">
-        <v>747145.2781481713</v>
+        <v>799740.5963024732</v>
       </c>
     </row>
     <row r="5">
@@ -17278,28 +17278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>554.4058023824597</v>
+        <v>596.9867984099479</v>
       </c>
       <c r="AB5" t="n">
-        <v>758.5624774774778</v>
+        <v>816.8236747832511</v>
       </c>
       <c r="AC5" t="n">
-        <v>686.1663392761506</v>
+        <v>738.8671696811647</v>
       </c>
       <c r="AD5" t="n">
-        <v>554405.8023824596</v>
+        <v>596986.7984099479</v>
       </c>
       <c r="AE5" t="n">
-        <v>758562.4774774779</v>
+        <v>816823.6747832511</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.207160481983699e-06</v>
+        <v>4.617517759528787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.820833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>686166.3392761506</v>
+        <v>738867.1696811647</v>
       </c>
     </row>
     <row r="6">
@@ -17384,28 +17384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>557.0460007330284</v>
+        <v>599.6269967605166</v>
       </c>
       <c r="AB6" t="n">
-        <v>762.1749133380565</v>
+        <v>820.4361106438299</v>
       </c>
       <c r="AC6" t="n">
-        <v>689.4340093282813</v>
+        <v>742.1348397332955</v>
       </c>
       <c r="AD6" t="n">
-        <v>557046.0007330284</v>
+        <v>599626.9967605165</v>
       </c>
       <c r="AE6" t="n">
-        <v>762174.9133380565</v>
+        <v>820436.1106438299</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.209149064143306e-06</v>
+        <v>4.62167799776847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.813541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>689434.0093282813</v>
+        <v>742134.8397332955</v>
       </c>
     </row>
   </sheetData>
@@ -32118,28 +32118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>818.6021447754439</v>
+        <v>880.0237742836647</v>
       </c>
       <c r="AB2" t="n">
-        <v>1120.04756865958</v>
+        <v>1204.087351883778</v>
       </c>
       <c r="AC2" t="n">
-        <v>1013.151800703345</v>
+        <v>1089.170944967202</v>
       </c>
       <c r="AD2" t="n">
-        <v>818602.1447754439</v>
+        <v>880023.7742836647</v>
       </c>
       <c r="AE2" t="n">
-        <v>1120047.56865958</v>
+        <v>1204087.351883778</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.785731349849821e-06</v>
+        <v>3.881922398285249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.998958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1013151.800703345</v>
+        <v>1089170.944967202</v>
       </c>
     </row>
     <row r="3">
@@ -32224,28 +32224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.6088538902125</v>
+        <v>599.5851433557679</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.313277975931</v>
+        <v>820.3788449690107</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.3682914463305</v>
+        <v>742.0830394141082</v>
       </c>
       <c r="AD3" t="n">
-        <v>558608.8538902125</v>
+        <v>599585.1433557678</v>
       </c>
       <c r="AE3" t="n">
-        <v>764313.2779759309</v>
+        <v>820378.8449690108</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172636951905216e-06</v>
+        <v>4.722999373703296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>691368.2914463305</v>
+        <v>742083.0394141081</v>
       </c>
     </row>
     <row r="4">
@@ -32330,28 +32330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.5066128425494</v>
+        <v>562.6628571478763</v>
       </c>
       <c r="AB4" t="n">
-        <v>699.8659137703017</v>
+        <v>769.8601440830677</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.0716932280426</v>
+        <v>696.3857724372775</v>
       </c>
       <c r="AD4" t="n">
-        <v>511506.6128425495</v>
+        <v>562662.8571478763</v>
       </c>
       <c r="AE4" t="n">
-        <v>699865.9137703017</v>
+        <v>769860.1440830677</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.238464045919072e-06</v>
+        <v>4.866097981838223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.977083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>633071.6932280426</v>
+        <v>696385.7724372775</v>
       </c>
     </row>
   </sheetData>
@@ -32627,28 +32627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.4179063362033</v>
+        <v>486.8944521868346</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.2309651990444</v>
+        <v>666.1904697492572</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.8503257134062</v>
+        <v>602.610186320584</v>
       </c>
       <c r="AD2" t="n">
-        <v>439417.9063362033</v>
+        <v>486894.4521868346</v>
       </c>
       <c r="AE2" t="n">
-        <v>601230.9651990443</v>
+        <v>666190.4697492572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208076258021457e-06</v>
+        <v>5.25196891721915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.679166666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>543850.3257134062</v>
+        <v>602610.186320584</v>
       </c>
     </row>
     <row r="3">
@@ -32733,28 +32733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.4976532554347</v>
+        <v>490.9741991060658</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.8130549196679</v>
+        <v>671.7725594698809</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.8996686256056</v>
+        <v>607.6595292327835</v>
       </c>
       <c r="AD3" t="n">
-        <v>443497.6532554346</v>
+        <v>490974.1991060658</v>
       </c>
       <c r="AE3" t="n">
-        <v>606813.0549196679</v>
+        <v>671772.5594698809</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211572087444205e-06</v>
+        <v>5.260283841761035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.665625</v>
       </c>
       <c r="AH3" t="n">
-        <v>548899.6686256056</v>
+        <v>607659.5292327835</v>
       </c>
     </row>
   </sheetData>
@@ -33030,28 +33030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2337.155806356464</v>
+        <v>2429.256515911121</v>
       </c>
       <c r="AB2" t="n">
-        <v>3197.799682294273</v>
+        <v>3323.815936303502</v>
       </c>
       <c r="AC2" t="n">
-        <v>2892.60616875603</v>
+        <v>3006.595608347536</v>
       </c>
       <c r="AD2" t="n">
-        <v>2337155.806356464</v>
+        <v>2429256.515911121</v>
       </c>
       <c r="AE2" t="n">
-        <v>3197799.682294273</v>
+        <v>3323815.936303502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081242627003537e-06</v>
+        <v>2.098235865455007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2892606.16875603</v>
+        <v>3006595.608347536</v>
       </c>
     </row>
     <row r="3">
@@ -33136,28 +33136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1139.85466207754</v>
+        <v>1197.470943583308</v>
       </c>
       <c r="AB3" t="n">
-        <v>1559.599435493114</v>
+        <v>1638.432573700251</v>
       </c>
       <c r="AC3" t="n">
-        <v>1410.753454281206</v>
+        <v>1482.062868420858</v>
       </c>
       <c r="AD3" t="n">
-        <v>1139854.66207754</v>
+        <v>1197470.943583308</v>
       </c>
       <c r="AE3" t="n">
-        <v>1559599.435493114</v>
+        <v>1638432.573700251</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.635789151511969e-06</v>
+        <v>3.174376759022653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.798958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1410753.454281206</v>
+        <v>1482062.868420858</v>
       </c>
     </row>
     <row r="4">
@@ -33242,28 +33242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>929.3913593447295</v>
+        <v>986.9222999959258</v>
       </c>
       <c r="AB4" t="n">
-        <v>1271.634259708468</v>
+        <v>1350.350630793407</v>
       </c>
       <c r="AC4" t="n">
-        <v>1150.271270711784</v>
+        <v>1221.475061819497</v>
       </c>
       <c r="AD4" t="n">
-        <v>929391.3593447295</v>
+        <v>986922.2999959257</v>
       </c>
       <c r="AE4" t="n">
-        <v>1271634.259708468</v>
+        <v>1350350.630793407</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.836435285795818e-06</v>
+        <v>3.5637462721226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.728125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1150271.270711784</v>
+        <v>1221475.061819497</v>
       </c>
     </row>
     <row r="5">
@@ -33348,28 +33348,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>843.2504886333442</v>
+        <v>889.2582624919379</v>
       </c>
       <c r="AB5" t="n">
-        <v>1153.772520134144</v>
+        <v>1216.722386047204</v>
       </c>
       <c r="AC5" t="n">
-        <v>1043.658090142443</v>
+        <v>1100.600109203453</v>
       </c>
       <c r="AD5" t="n">
-        <v>843250.4886333442</v>
+        <v>889258.2624919378</v>
       </c>
       <c r="AE5" t="n">
-        <v>1153772.520134144</v>
+        <v>1216722.386047204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936758352937743e-06</v>
+        <v>3.758431028672574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.276041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1043658.090142443</v>
+        <v>1100600.109203453</v>
       </c>
     </row>
     <row r="6">
@@ -33454,28 +33454,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>790.3595452180278</v>
+        <v>836.3673190766216</v>
       </c>
       <c r="AB6" t="n">
-        <v>1081.404797969567</v>
+        <v>1144.354663882627</v>
       </c>
       <c r="AC6" t="n">
-        <v>978.1970418125173</v>
+        <v>1035.139060873527</v>
       </c>
       <c r="AD6" t="n">
-        <v>790359.5452180279</v>
+        <v>836367.3190766216</v>
       </c>
       <c r="AE6" t="n">
-        <v>1081404.797969567</v>
+        <v>1144354.663882627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.998152377154964e-06</v>
+        <v>3.877570933371101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>978197.0418125173</v>
+        <v>1035139.060873527</v>
       </c>
     </row>
     <row r="7">
@@ -33560,28 +33560,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>736.7411221807212</v>
+        <v>782.8341473853354</v>
       </c>
       <c r="AB7" t="n">
-        <v>1008.041706092047</v>
+        <v>1071.108216657756</v>
       </c>
       <c r="AC7" t="n">
-        <v>911.8356204580413</v>
+        <v>968.8831517697631</v>
       </c>
       <c r="AD7" t="n">
-        <v>736741.1221807211</v>
+        <v>782834.1473853354</v>
       </c>
       <c r="AE7" t="n">
-        <v>1008041.706092047</v>
+        <v>1071108.216657756</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.043236209474879e-06</v>
+        <v>3.965059635317638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.844791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>911835.6204580413</v>
+        <v>968883.1517697631</v>
       </c>
     </row>
     <row r="8">
@@ -33666,28 +33666,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>701.0491676899555</v>
+        <v>747.1421928945699</v>
       </c>
       <c r="AB8" t="n">
-        <v>959.2063993398804</v>
+        <v>1022.27290990559</v>
       </c>
       <c r="AC8" t="n">
-        <v>867.6610868415185</v>
+        <v>924.70861815324</v>
       </c>
       <c r="AD8" t="n">
-        <v>701049.1676899556</v>
+        <v>747142.1928945699</v>
       </c>
       <c r="AE8" t="n">
-        <v>959206.3993398803</v>
+        <v>1022272.90990559</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.076472072209013e-06</v>
+        <v>4.029556425831126e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.71875</v>
       </c>
       <c r="AH8" t="n">
-        <v>867661.0868415184</v>
+        <v>924708.6181532399</v>
       </c>
     </row>
     <row r="9">
@@ -33772,28 +33772,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>676.5846785843269</v>
+        <v>722.6777037889412</v>
       </c>
       <c r="AB9" t="n">
-        <v>925.7330060484728</v>
+        <v>988.7995166141822</v>
       </c>
       <c r="AC9" t="n">
-        <v>837.38234722564</v>
+        <v>894.4298785373618</v>
       </c>
       <c r="AD9" t="n">
-        <v>676584.6785843269</v>
+        <v>722677.7037889413</v>
       </c>
       <c r="AE9" t="n">
-        <v>925733.0060484728</v>
+        <v>988799.5166141822</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.097859965357368e-06</v>
+        <v>4.071061304911565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.639583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>837382.3472256401</v>
+        <v>894429.8785373617</v>
       </c>
     </row>
     <row r="10">
@@ -33878,28 +33878,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>672.1977532891387</v>
+        <v>718.290778493753</v>
       </c>
       <c r="AB10" t="n">
-        <v>919.7306213221116</v>
+        <v>982.7971318878209</v>
       </c>
       <c r="AC10" t="n">
-        <v>831.9528216731628</v>
+        <v>889.0003529848847</v>
       </c>
       <c r="AD10" t="n">
-        <v>672197.7532891388</v>
+        <v>718290.7784937531</v>
       </c>
       <c r="AE10" t="n">
-        <v>919730.6213221116</v>
+        <v>982797.1318878209</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.101091229789853e-06</v>
+        <v>4.077331826211487e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.629166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>831952.8216731629</v>
+        <v>889000.3529848846</v>
       </c>
     </row>
     <row r="11">
@@ -33984,28 +33984,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>675.3329127053477</v>
+        <v>721.425937909962</v>
       </c>
       <c r="AB11" t="n">
-        <v>924.0202847488403</v>
+        <v>987.0867953145496</v>
       </c>
       <c r="AC11" t="n">
-        <v>835.8330856430251</v>
+        <v>892.8806169547466</v>
       </c>
       <c r="AD11" t="n">
-        <v>675332.9127053476</v>
+        <v>721425.937909962</v>
       </c>
       <c r="AE11" t="n">
-        <v>924020.2847488403</v>
+        <v>987086.7953145496</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.100937360054973e-06</v>
+        <v>4.07703322995911e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.629166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>835833.0856430251</v>
+        <v>892880.6169547467</v>
       </c>
     </row>
   </sheetData>
@@ -34281,28 +34281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3783.227078056157</v>
+        <v>3891.023303047256</v>
       </c>
       <c r="AB2" t="n">
-        <v>5176.378192395907</v>
+        <v>5323.869743062549</v>
       </c>
       <c r="AC2" t="n">
-        <v>4682.351922805869</v>
+        <v>4815.767086882572</v>
       </c>
       <c r="AD2" t="n">
-        <v>3783227.078056157</v>
+        <v>3891023.303047257</v>
       </c>
       <c r="AE2" t="n">
-        <v>5176378.192395907</v>
+        <v>5323869.743062549</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.359675317464773e-07</v>
+        <v>1.568602980469618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4682351.922805868</v>
+        <v>4815767.086882572</v>
       </c>
     </row>
     <row r="3">
@@ -34387,28 +34387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1470.823597287575</v>
+        <v>1542.65924065775</v>
       </c>
       <c r="AB3" t="n">
-        <v>2012.445733966396</v>
+        <v>2110.734430390387</v>
       </c>
       <c r="AC3" t="n">
-        <v>1820.38073760197</v>
+        <v>1909.288898788306</v>
       </c>
       <c r="AD3" t="n">
-        <v>1470823.597287575</v>
+        <v>1542659.24065775</v>
       </c>
       <c r="AE3" t="n">
-        <v>2012445.733966396</v>
+        <v>2110734.430390387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446707202421139e-06</v>
+        <v>2.714590152614768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.67604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1820380.73760197</v>
+        <v>1909288.898788306</v>
       </c>
     </row>
     <row r="4">
@@ -34493,28 +34493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1160.902150728288</v>
+        <v>1220.665712048319</v>
       </c>
       <c r="AB4" t="n">
-        <v>1588.397538014734</v>
+        <v>1670.168679195044</v>
       </c>
       <c r="AC4" t="n">
-        <v>1436.803106316553</v>
+        <v>1510.770124549132</v>
       </c>
       <c r="AD4" t="n">
-        <v>1160902.150728289</v>
+        <v>1220665.712048319</v>
       </c>
       <c r="AE4" t="n">
-        <v>1588397.538014734</v>
+        <v>1670168.679195044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669266135580319e-06</v>
+        <v>3.132198005343553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.252083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1436803.106316553</v>
+        <v>1510770.124549132</v>
       </c>
     </row>
     <row r="5">
@@ -34599,28 +34599,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026.079540407388</v>
+        <v>1085.928353073439</v>
       </c>
       <c r="AB5" t="n">
-        <v>1403.927294619896</v>
+        <v>1485.815080452855</v>
       </c>
       <c r="AC5" t="n">
-        <v>1269.938444045706</v>
+        <v>1344.010974528997</v>
       </c>
       <c r="AD5" t="n">
-        <v>1026079.540407388</v>
+        <v>1085928.353073439</v>
       </c>
       <c r="AE5" t="n">
-        <v>1403927.294619896</v>
+        <v>1485815.080452855</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.787736880146732e-06</v>
+        <v>3.354495589840755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.639583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1269938.444045706</v>
+        <v>1344010.974528997</v>
       </c>
     </row>
     <row r="6">
@@ -34705,28 +34705,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>957.6140120204357</v>
+        <v>1005.476083490913</v>
       </c>
       <c r="AB6" t="n">
-        <v>1310.249738194931</v>
+        <v>1375.736735906407</v>
       </c>
       <c r="AC6" t="n">
-        <v>1185.201342128663</v>
+        <v>1244.438352690135</v>
       </c>
       <c r="AD6" t="n">
-        <v>957614.0120204356</v>
+        <v>1005476.083490913</v>
       </c>
       <c r="AE6" t="n">
-        <v>1310249.738194931</v>
+        <v>1375736.735906407</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.859056564923259e-06</v>
+        <v>3.488319292147582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1185201.342128663</v>
+        <v>1244438.352690135</v>
       </c>
     </row>
     <row r="7">
@@ -34811,28 +34811,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>910.5954973929164</v>
+        <v>958.4575688633935</v>
       </c>
       <c r="AB7" t="n">
-        <v>1245.916932171091</v>
+        <v>1311.403929882568</v>
       </c>
       <c r="AC7" t="n">
-        <v>1127.008368820078</v>
+        <v>1186.24537938155</v>
       </c>
       <c r="AD7" t="n">
-        <v>910595.4973929164</v>
+        <v>958457.5688633935</v>
       </c>
       <c r="AE7" t="n">
-        <v>1245916.932171091</v>
+        <v>1311403.929882568</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.907986909988235e-06</v>
+        <v>3.580131811401745e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.094791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1127008.368820078</v>
+        <v>1186245.37938155</v>
       </c>
     </row>
     <row r="8">
@@ -34917,28 +34917,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>861.6128883952468</v>
+        <v>921.376360206726</v>
       </c>
       <c r="AB8" t="n">
-        <v>1178.896765580284</v>
+        <v>1260.667784291045</v>
       </c>
       <c r="AC8" t="n">
-        <v>1066.384512865303</v>
+        <v>1140.351420316655</v>
       </c>
       <c r="AD8" t="n">
-        <v>861612.8883952468</v>
+        <v>921376.360206726</v>
       </c>
       <c r="AE8" t="n">
-        <v>1178896.765580284</v>
+        <v>1260667.784291045</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.94550017453805e-06</v>
+        <v>3.650521409496604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.938541666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1066384.512865303</v>
+        <v>1140351.420316655</v>
       </c>
     </row>
     <row r="9">
@@ -35023,28 +35023,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>831.9020671553774</v>
+        <v>879.8493899718751</v>
       </c>
       <c r="AB9" t="n">
-        <v>1138.245109210969</v>
+        <v>1203.848751575095</v>
       </c>
       <c r="AC9" t="n">
-        <v>1029.612593524918</v>
+        <v>1088.955116337102</v>
       </c>
       <c r="AD9" t="n">
-        <v>831902.0671553774</v>
+        <v>879849.3899718751</v>
       </c>
       <c r="AE9" t="n">
-        <v>1138245.109210969</v>
+        <v>1203848.751575095</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.972782548756098e-06</v>
+        <v>3.701713844474683e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.829166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1029612.593524918</v>
+        <v>1088955.116337102</v>
       </c>
     </row>
     <row r="10">
@@ -35129,28 +35129,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>805.9879624735833</v>
+        <v>853.9352852900812</v>
       </c>
       <c r="AB10" t="n">
-        <v>1102.788287935727</v>
+        <v>1168.391930299852</v>
       </c>
       <c r="AC10" t="n">
-        <v>997.5397215082231</v>
+        <v>1056.882244320407</v>
       </c>
       <c r="AD10" t="n">
-        <v>805987.9624735833</v>
+        <v>853935.2852900812</v>
       </c>
       <c r="AE10" t="n">
-        <v>1102788.287935727</v>
+        <v>1168391.930299852</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.994875340921799e-06</v>
+        <v>3.743168588016714e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>997539.7215082231</v>
+        <v>1056882.244320407</v>
       </c>
     </row>
     <row r="11">
@@ -35235,28 +35235,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>785.6194466700462</v>
+        <v>833.5667694865442</v>
       </c>
       <c r="AB11" t="n">
-        <v>1074.91918601783</v>
+        <v>1140.522828381955</v>
       </c>
       <c r="AC11" t="n">
-        <v>972.3304075628403</v>
+        <v>1031.672930375024</v>
       </c>
       <c r="AD11" t="n">
-        <v>785619.4466700462</v>
+        <v>833566.7694865442</v>
       </c>
       <c r="AE11" t="n">
-        <v>1074919.18601783</v>
+        <v>1140522.828381955</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010295813305913e-06</v>
+        <v>3.772103442569541e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.683333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>972330.4075628403</v>
+        <v>1031672.930375024</v>
       </c>
     </row>
     <row r="12">
@@ -35341,28 +35341,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>762.4677170235078</v>
+        <v>810.4150398400056</v>
       </c>
       <c r="AB12" t="n">
-        <v>1043.241968133209</v>
+        <v>1108.845610497335</v>
       </c>
       <c r="AC12" t="n">
-        <v>943.6764188938733</v>
+        <v>1003.018941706057</v>
       </c>
       <c r="AD12" t="n">
-        <v>762467.7170235078</v>
+        <v>810415.0398400057</v>
       </c>
       <c r="AE12" t="n">
-        <v>1043241.968133209</v>
+        <v>1108845.610497335</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.026012833235875e-06</v>
+        <v>3.801594736633001e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.622916666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>943676.4188938733</v>
+        <v>1003018.941706057</v>
       </c>
     </row>
     <row r="13">
@@ -35447,28 +35447,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>748.7877057468357</v>
+        <v>796.7350285633338</v>
       </c>
       <c r="AB13" t="n">
-        <v>1024.524373184964</v>
+        <v>1090.128015549089</v>
       </c>
       <c r="AC13" t="n">
-        <v>926.7452049371788</v>
+        <v>986.0877277493626</v>
       </c>
       <c r="AD13" t="n">
-        <v>748787.7057468358</v>
+        <v>796735.0285633338</v>
       </c>
       <c r="AE13" t="n">
-        <v>1024524.373184964</v>
+        <v>1090128.015549089</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.034464438292553e-06</v>
+        <v>3.817453262685992e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.591666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>926745.2049371788</v>
+        <v>986087.7277493626</v>
       </c>
     </row>
     <row r="14">
@@ -35553,28 +35553,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>748.2941334835069</v>
+        <v>796.241456300005</v>
       </c>
       <c r="AB14" t="n">
-        <v>1023.849045839405</v>
+        <v>1089.452688203531</v>
       </c>
       <c r="AC14" t="n">
-        <v>926.134329885653</v>
+        <v>985.4768526978368</v>
       </c>
       <c r="AD14" t="n">
-        <v>748294.133483507</v>
+        <v>796241.456300005</v>
       </c>
       <c r="AE14" t="n">
-        <v>1023849.045839406</v>
+        <v>1089452.688203531</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.035947176021795e-06</v>
+        <v>3.820235460239148e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.586458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>926134.329885653</v>
+        <v>985476.8526978368</v>
       </c>
     </row>
     <row r="15">
@@ -35659,28 +35659,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>751.1610005182354</v>
+        <v>799.1083233347335</v>
       </c>
       <c r="AB15" t="n">
-        <v>1027.771619793568</v>
+        <v>1093.375262157694</v>
       </c>
       <c r="AC15" t="n">
-        <v>929.6825388869975</v>
+        <v>989.0250616991814</v>
       </c>
       <c r="AD15" t="n">
-        <v>751161.0005182354</v>
+        <v>799108.3233347335</v>
       </c>
       <c r="AE15" t="n">
-        <v>1027771.619793568</v>
+        <v>1093375.262157694</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.035650628475946e-06</v>
+        <v>3.819679020728518e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.587500000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>929682.5388869975</v>
+        <v>989025.0616991813</v>
       </c>
     </row>
   </sheetData>
@@ -35956,28 +35956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.5506261277233</v>
+        <v>457.1809987432981</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.1017230001672</v>
+        <v>625.535211882761</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.3600848752623</v>
+        <v>565.8350092048535</v>
       </c>
       <c r="AD2" t="n">
-        <v>411550.6261277233</v>
+        <v>457180.9987432981</v>
       </c>
       <c r="AE2" t="n">
-        <v>563101.7230001672</v>
+        <v>625535.211882761</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.107376142676143e-06</v>
+        <v>5.270387805044523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.417708333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>509360.0848752623</v>
+        <v>565835.0092048534</v>
       </c>
     </row>
   </sheetData>
@@ -36253,28 +36253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1275.364442947484</v>
+        <v>1340.248124793541</v>
       </c>
       <c r="AB2" t="n">
-        <v>1745.009895948979</v>
+        <v>1833.786611916775</v>
       </c>
       <c r="AC2" t="n">
-        <v>1578.468600616378</v>
+        <v>1658.772591411112</v>
       </c>
       <c r="AD2" t="n">
-        <v>1275364.442947484</v>
+        <v>1340248.124793541</v>
       </c>
       <c r="AE2" t="n">
-        <v>1745009.895948979</v>
+        <v>1833786.611916774</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>3.023497641888705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1578468.600616378</v>
+        <v>1658772.591411112</v>
       </c>
     </row>
     <row r="3">
@@ -36359,28 +36359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>773.6986833467622</v>
+        <v>827.6830773639051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1058.608671731951</v>
+        <v>1132.472501249584</v>
       </c>
       <c r="AC3" t="n">
-        <v>957.5765458684555</v>
+        <v>1024.390915165461</v>
       </c>
       <c r="AD3" t="n">
-        <v>773698.6833467622</v>
+        <v>827683.0773639051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1058608.671731951</v>
+        <v>1132472.501249584</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932162578826036e-06</v>
+        <v>3.978870436973325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.804166666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>957576.5458684554</v>
+        <v>1024390.915165461</v>
       </c>
     </row>
     <row r="4">
@@ -36465,28 +36465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.2597357259482</v>
+        <v>704.4302722772993</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.764743140876</v>
+        <v>963.8325758000909</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.4152659008025</v>
+        <v>871.8457475132458</v>
       </c>
       <c r="AD4" t="n">
-        <v>661259.7357259482</v>
+        <v>704430.2722772993</v>
       </c>
       <c r="AE4" t="n">
-        <v>904764.7431408761</v>
+        <v>963832.5758000909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.092522928082896e-06</v>
+        <v>4.309097851536189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.129166666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>818415.2659008026</v>
+        <v>871845.7475132458</v>
       </c>
     </row>
     <row r="5">
@@ -36571,28 +36571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.0993528755399</v>
+        <v>631.3551407729116</v>
       </c>
       <c r="AB5" t="n">
-        <v>804.6634797166492</v>
+        <v>863.8479570285134</v>
       </c>
       <c r="AC5" t="n">
-        <v>727.8675265647785</v>
+        <v>781.4035204279338</v>
       </c>
       <c r="AD5" t="n">
-        <v>588099.3528755399</v>
+        <v>631355.1407729116</v>
       </c>
       <c r="AE5" t="n">
-        <v>804663.4797166493</v>
+        <v>863847.9570285134</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.174989299136577e-06</v>
+        <v>4.47891948529815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.820833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>727867.5265647785</v>
+        <v>781403.5204279338</v>
       </c>
     </row>
     <row r="6">
@@ -36677,28 +36677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>576.7837230834401</v>
+        <v>620.0395109808118</v>
       </c>
       <c r="AB6" t="n">
-        <v>789.1809358247444</v>
+        <v>848.3654131366086</v>
       </c>
       <c r="AC6" t="n">
-        <v>713.8626149320299</v>
+        <v>767.3986087951855</v>
       </c>
       <c r="AD6" t="n">
-        <v>576783.7230834401</v>
+        <v>620039.5109808118</v>
       </c>
       <c r="AE6" t="n">
-        <v>789180.9358247444</v>
+        <v>848365.4131366085</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>4.510529848810278e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>713862.61493203</v>
+        <v>767398.6087951855</v>
       </c>
     </row>
     <row r="7">
@@ -36783,28 +36783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>580.406015343621</v>
+        <v>623.6618032409926</v>
       </c>
       <c r="AB7" t="n">
-        <v>794.13711589938</v>
+        <v>853.3215932112441</v>
       </c>
       <c r="AC7" t="n">
-        <v>718.3457841363847</v>
+        <v>771.8817779995402</v>
       </c>
       <c r="AD7" t="n">
-        <v>580406.015343621</v>
+        <v>623661.8032409926</v>
       </c>
       <c r="AE7" t="n">
-        <v>794137.1158993799</v>
+        <v>853321.5932112441</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>4.510529848810278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.766666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>718345.7841363847</v>
+        <v>771881.7779995402</v>
       </c>
     </row>
   </sheetData>
@@ -37080,28 +37080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1849.620429450093</v>
+        <v>1928.278988550916</v>
       </c>
       <c r="AB2" t="n">
-        <v>2530.732271067961</v>
+        <v>2638.356381800421</v>
       </c>
       <c r="AC2" t="n">
-        <v>2289.202735022285</v>
+        <v>2386.555351677828</v>
       </c>
       <c r="AD2" t="n">
-        <v>1849620.429450093</v>
+        <v>1928278.988550916</v>
       </c>
       <c r="AE2" t="n">
-        <v>2530732.271067961</v>
+        <v>2638356.381800422</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222248894524516e-06</v>
+        <v>2.421500090476095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>2289202.735022285</v>
+        <v>2386555.351677828</v>
       </c>
     </row>
     <row r="3">
@@ -37186,28 +37186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>994.1328504841298</v>
+        <v>1050.268794927405</v>
       </c>
       <c r="AB3" t="n">
-        <v>1360.216424078405</v>
+        <v>1437.024099808777</v>
       </c>
       <c r="AC3" t="n">
-        <v>1230.399277640102</v>
+        <v>1299.876536599018</v>
       </c>
       <c r="AD3" t="n">
-        <v>994132.8504841297</v>
+        <v>1050268.794927405</v>
       </c>
       <c r="AE3" t="n">
-        <v>1360216.424078405</v>
+        <v>1437024.099808777</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.744228098257651e-06</v>
+        <v>3.455636995593234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1230399.277640102</v>
+        <v>1299876.536599018</v>
       </c>
     </row>
     <row r="4">
@@ -37292,28 +37292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>825.5611969372032</v>
+        <v>870.521174906277</v>
       </c>
       <c r="AB4" t="n">
-        <v>1129.569250839013</v>
+        <v>1191.085476190539</v>
       </c>
       <c r="AC4" t="n">
-        <v>1021.764746899337</v>
+        <v>1077.409950041879</v>
       </c>
       <c r="AD4" t="n">
-        <v>825561.1969372033</v>
+        <v>870521.174906277</v>
       </c>
       <c r="AE4" t="n">
-        <v>1129569.250839012</v>
+        <v>1191085.476190539</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.927549710171155e-06</v>
+        <v>3.818830860462687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.495833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1021764.746899337</v>
+        <v>1077409.950041879</v>
       </c>
     </row>
     <row r="5">
@@ -37398,28 +37398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>748.64794543861</v>
+        <v>793.6079234076838</v>
       </c>
       <c r="AB5" t="n">
-        <v>1024.333146965459</v>
+        <v>1085.849372316986</v>
       </c>
       <c r="AC5" t="n">
-        <v>926.5722290796764</v>
+        <v>982.2174322222178</v>
       </c>
       <c r="AD5" t="n">
-        <v>748647.94543861</v>
+        <v>793607.9234076837</v>
       </c>
       <c r="AE5" t="n">
-        <v>1024333.146965459</v>
+        <v>1085849.372316986</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.024713308938348e-06</v>
+        <v>4.01132983858389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.088541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>926572.2290796764</v>
+        <v>982217.4322222178</v>
       </c>
     </row>
     <row r="6">
@@ -37504,28 +37504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>686.8524679596691</v>
+        <v>731.8976972747632</v>
       </c>
       <c r="AB6" t="n">
-        <v>939.7818484547132</v>
+        <v>1001.414718458889</v>
       </c>
       <c r="AC6" t="n">
-        <v>850.090387830303</v>
+        <v>905.8411032235566</v>
       </c>
       <c r="AD6" t="n">
-        <v>686852.4679596691</v>
+        <v>731897.6972747633</v>
       </c>
       <c r="AE6" t="n">
-        <v>939781.8484547132</v>
+        <v>1001414.718458889</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.082256799470374e-06</v>
+        <v>4.125334087762465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>850090.3878303031</v>
+        <v>905841.1032235567</v>
       </c>
     </row>
     <row r="7">
@@ -37610,28 +37610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>648.7173011883356</v>
+        <v>693.7625305034297</v>
       </c>
       <c r="AB7" t="n">
-        <v>887.6036308733547</v>
+        <v>949.2365008775308</v>
       </c>
       <c r="AC7" t="n">
-        <v>802.8919861023214</v>
+        <v>858.6427014955749</v>
       </c>
       <c r="AD7" t="n">
-        <v>648717.3011883355</v>
+        <v>693762.5305034297</v>
       </c>
       <c r="AE7" t="n">
-        <v>887603.6308733547</v>
+        <v>949236.5008775308</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.121562462402085e-06</v>
+        <v>4.203205842665864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.719791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>802891.9861023214</v>
+        <v>858642.7014955749</v>
       </c>
     </row>
     <row r="8">
@@ -37716,28 +37716,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>634.262023221802</v>
+        <v>679.3072525368963</v>
       </c>
       <c r="AB8" t="n">
-        <v>867.825281837688</v>
+        <v>929.458151841864</v>
       </c>
       <c r="AC8" t="n">
-        <v>785.0012549395313</v>
+        <v>840.7519703327848</v>
       </c>
       <c r="AD8" t="n">
-        <v>634262.023221802</v>
+        <v>679307.2525368963</v>
       </c>
       <c r="AE8" t="n">
-        <v>867825.2818376879</v>
+        <v>929458.151841864</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.135869723709229e-06</v>
+        <v>4.231551161450702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.667708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>785001.2549395313</v>
+        <v>840751.9703327848</v>
       </c>
     </row>
     <row r="9">
@@ -37822,28 +37822,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>637.0621508146934</v>
+        <v>682.1073801297878</v>
       </c>
       <c r="AB9" t="n">
-        <v>871.6565399431931</v>
+        <v>933.2894099473688</v>
       </c>
       <c r="AC9" t="n">
-        <v>788.4668631486513</v>
+        <v>844.2175785419049</v>
       </c>
       <c r="AD9" t="n">
-        <v>637062.1508146934</v>
+        <v>682107.3801297877</v>
       </c>
       <c r="AE9" t="n">
-        <v>871656.5399431931</v>
+        <v>933289.4099473688</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.136026946360956e-06</v>
+        <v>4.231862648470315e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>788466.8631486513</v>
+        <v>844217.5785419049</v>
       </c>
     </row>
   </sheetData>
